--- a/data/dieticians/dieticians_all_final.xlsx
+++ b/data/dieticians/dieticians_all_final.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK401"/>
+  <dimension ref="A1:AQ401"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,6 +543,36 @@
           <t>who_cat_clean_dietcons</t>
         </is>
       </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>marketing_str_11_TEXT_diet1</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>marketing_str_11_TEXT_diet2</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>marketing_str_11_TEXT_diet3</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>prem_offer_10_TEXT_diet1</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>prem_offer_10_TEXT_diet2</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>prem_offer_10_TEXT_diet3</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -725,6 +755,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="AM2" t="inlineStr">
+        <is>
+          <t>fondateur de IJsboerke</t>
+        </is>
+      </c>
+      <c r="AN2" t="inlineStr">
+        <is>
+          <t>Koppelen van het merk aan de verkoop ervan in een specifieke supermarktketen</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1091,7 +1131,17 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>4e,A</t>
+          <t>4e, A</t>
+        </is>
+      </c>
+      <c r="AN4" t="inlineStr">
+        <is>
+          <t>Samenwerking met een ander merk</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr">
+        <is>
+          <t>Combinatie met een ander merk en het aanbieden van mogelijke recepten</t>
         </is>
       </c>
     </row>
@@ -1253,7 +1303,7 @@
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>4.2,4.3</t>
+          <t>4.2, 4.3</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
@@ -1273,7 +1323,12 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>4b,4c</t>
+          <t>4b, 4c</t>
+        </is>
+      </c>
+      <c r="AM5" t="inlineStr">
+        <is>
+          <t>Promouvoir les alternatives végétales</t>
         </is>
       </c>
     </row>
@@ -1400,7 +1455,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>1, 2</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1612,7 +1667,7 @@
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>1,12,14,15,3,4.6</t>
+          <t>1, 12, 14, 15, 3, 4.6</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
@@ -1632,7 +1687,12 @@
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>1,12,14,15,3,4f</t>
+          <t>1, 12, 14, 15, 3, 4f</t>
+        </is>
+      </c>
+      <c r="AM7" t="inlineStr">
+        <is>
+          <t>Idéal pour la famille</t>
         </is>
       </c>
     </row>
@@ -1767,11 +1827,6 @@
           <t>7</t>
         </is>
       </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="AH8" t="inlineStr">
         <is>
           <t>A</t>
@@ -1916,7 +1971,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>0,2,5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -2153,7 +2208,12 @@
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>10,12,15,18,8,NA</t>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="AM10" t="inlineStr">
+        <is>
+          <t>Saison + idée recette offerte</t>
         </is>
       </c>
     </row>
@@ -2300,7 +2360,7 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>0,11,9</t>
+          <t>11</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
@@ -2335,7 +2395,17 @@
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>12,14,15,18,NA</t>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="AM11" t="inlineStr">
+        <is>
+          <t>Mention du plat de pâtes favori des Belges</t>
+        </is>
+      </c>
+      <c r="AN11" t="inlineStr">
+        <is>
+          <t>Wereld Pastadag</t>
         </is>
       </c>
     </row>
@@ -2652,11 +2722,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="AG13" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="AH13" t="inlineStr">
         <is>
           <t>A</t>
@@ -2675,6 +2740,11 @@
       <c r="AK13" t="inlineStr">
         <is>
           <t>A</t>
+        </is>
+      </c>
+      <c r="AM13" t="inlineStr">
+        <is>
+          <t>Promouvoir les alternatives 0%</t>
         </is>
       </c>
     </row>
@@ -2859,6 +2929,11 @@
           <t>7</t>
         </is>
       </c>
+      <c r="AP14" t="inlineStr">
+        <is>
+          <t>Livraison offerte</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3208,6 +3283,21 @@
           <t>A</t>
         </is>
       </c>
+      <c r="AL16" t="inlineStr">
+        <is>
+          <t>Faire un test pour savoir quelle bière correspond</t>
+        </is>
+      </c>
+      <c r="AM16" t="inlineStr">
+        <is>
+          <t>Test de personnalité</t>
+        </is>
+      </c>
+      <c r="AN16" t="inlineStr">
+        <is>
+          <t>Doe de 'Blond'test</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3352,7 +3442,7 @@
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>0,11,3</t>
+          <t>11</t>
         </is>
       </c>
       <c r="AE17" t="inlineStr">
@@ -3388,6 +3478,16 @@
       <c r="AK17" t="inlineStr">
         <is>
           <t>NA</t>
+        </is>
+      </c>
+      <c r="AM17" t="inlineStr">
+        <is>
+          <t>Partage de recette</t>
+        </is>
+      </c>
+      <c r="AN17" t="inlineStr">
+        <is>
+          <t>Recept</t>
         </is>
       </c>
     </row>
@@ -3567,6 +3667,21 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AL18" t="inlineStr">
+        <is>
+          <t>Naissance</t>
+        </is>
+      </c>
+      <c r="AM18" t="inlineStr">
+        <is>
+          <t>Grossesse et offre pour calculer la date de naissance du bébé</t>
+        </is>
+      </c>
+      <c r="AN18" t="inlineStr">
+        <is>
+          <t>Reken de geboortedatum uit via een test</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3749,6 +3864,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="AM19" t="inlineStr">
+        <is>
+          <t>Placement d'une marque supplémentaire : Nûby</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3893,7 +4013,7 @@
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>0,11,9</t>
+          <t>11</t>
         </is>
       </c>
       <c r="AE20" t="inlineStr">
@@ -3928,7 +4048,17 @@
       </c>
       <c r="AK20" t="inlineStr">
         <is>
-          <t>12,15,3,NA</t>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="AM20" t="inlineStr">
+        <is>
+          <t>Offre de recette</t>
+        </is>
+      </c>
+      <c r="AN20" t="inlineStr">
+        <is>
+          <t>November = wereld vegan maand, recept</t>
         </is>
       </c>
     </row>
@@ -4108,6 +4238,11 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AM21" t="inlineStr">
+        <is>
+          <t>Dessin de tomate, ingrédient principal de la marque</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4252,7 +4387,7 @@
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>1,2,3,9</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AE22" t="inlineStr">
@@ -4472,6 +4607,11 @@
           <t>16</t>
         </is>
       </c>
+      <c r="AM23" t="inlineStr">
+        <is>
+          <t>Saison estivale</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -4619,29 +4759,39 @@
           <t>11</t>
         </is>
       </c>
-      <c r="AG24" t="inlineStr">
+      <c r="AH24" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AH24" t="inlineStr">
+      <c r="AI24" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AI24" t="inlineStr">
+      <c r="AJ24" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AJ24" t="inlineStr">
+      <c r="AK24" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AK24" t="inlineStr">
-        <is>
-          <t>NA</t>
+      <c r="AM24" t="inlineStr">
+        <is>
+          <t>Grossesse + accès à des infos sur son bébé et sa grossesse</t>
+        </is>
+      </c>
+      <c r="AN24" t="inlineStr">
+        <is>
+          <t>Info over zwangerschapskalender</t>
+        </is>
+      </c>
+      <c r="AP24" t="inlineStr">
+        <is>
+          <t>Aller sur leur siteweb pour avoir accès à des infos sur son bébé</t>
         </is>
       </c>
     </row>
@@ -4821,6 +4971,21 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AM25" t="inlineStr">
+        <is>
+          <t>premiers mois de son bébé et infos dessus offertes</t>
+        </is>
+      </c>
+      <c r="AN25" t="inlineStr">
+        <is>
+          <t>Extra info die wordt aangeboden</t>
+        </is>
+      </c>
+      <c r="AP25" t="inlineStr">
+        <is>
+          <t>Accès à des infos sur son bébé en cliquant sur un lien</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -4945,7 +5110,7 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>1, 2</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
@@ -4968,29 +5133,29 @@
           <t>1</t>
         </is>
       </c>
-      <c r="AG26" t="inlineStr">
+      <c r="AH26" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AH26" t="inlineStr">
+      <c r="AI26" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AI26" t="inlineStr">
+      <c r="AJ26" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AJ26" t="inlineStr">
+      <c r="AK26" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AK26" t="inlineStr">
-        <is>
-          <t>NA</t>
+      <c r="AM26" t="inlineStr">
+        <is>
+          <t>Jeu sur la pub</t>
         </is>
       </c>
     </row>
@@ -5140,29 +5305,29 @@
           <t>0</t>
         </is>
       </c>
-      <c r="AG27" t="inlineStr">
+      <c r="AH27" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AH27" t="inlineStr">
+      <c r="AI27" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AI27" t="inlineStr">
+      <c r="AJ27" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AJ27" t="inlineStr">
+      <c r="AK27" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AK27" t="inlineStr">
-        <is>
-          <t>NA</t>
+      <c r="AM27" t="inlineStr">
+        <is>
+          <t>Mise en situation comique</t>
         </is>
       </c>
     </row>
@@ -5344,7 +5509,17 @@
       </c>
       <c r="AK28" t="inlineStr">
         <is>
-          <t>12,18,NA</t>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="AM28" t="inlineStr">
+        <is>
+          <t>Mise en avant de la cuisine japonaise + idée de recette</t>
+        </is>
+      </c>
+      <c r="AN28" t="inlineStr">
+        <is>
+          <t>Recept</t>
         </is>
       </c>
     </row>
@@ -5529,6 +5704,16 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AM29" t="inlineStr">
+        <is>
+          <t>Saison automnale et invitation à partager son avis dans les commentaires</t>
+        </is>
+      </c>
+      <c r="AN29" t="inlineStr">
+        <is>
+          <t>Recept</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -5711,6 +5896,11 @@
           <t>3</t>
         </is>
       </c>
+      <c r="AM30" t="inlineStr">
+        <is>
+          <t>Nouvauté</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6037,32 +6227,42 @@
       </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>11,7,9</t>
-        </is>
-      </c>
-      <c r="AG32" t="inlineStr">
+          <t>11, 7</t>
+        </is>
+      </c>
+      <c r="AH32" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AH32" t="inlineStr">
+      <c r="AI32" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AI32" t="inlineStr">
+      <c r="AJ32" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AJ32" t="inlineStr">
+      <c r="AK32" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AK32" t="inlineStr">
-        <is>
-          <t>NA</t>
+      <c r="AM32" t="inlineStr">
+        <is>
+          <t>Choisir le design de la prochaine boîte Delacre</t>
+        </is>
+      </c>
+      <c r="AN32" t="inlineStr">
+        <is>
+          <t>Stem op je favoriete doos</t>
+        </is>
+      </c>
+      <c r="AP32" t="inlineStr">
+        <is>
+          <t>Nouveau designe de boîte Delacre à choisir</t>
         </is>
       </c>
     </row>
@@ -6174,7 +6374,7 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>0,10,5,7</t>
+          <t>7</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
@@ -6197,11 +6397,6 @@
           <t>1,11,9</t>
         </is>
       </c>
-      <c r="AG33" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="AH33" t="inlineStr">
         <is>
           <t>A</t>
@@ -6220,6 +6415,16 @@
       <c r="AK33" t="inlineStr">
         <is>
           <t>A</t>
+        </is>
+      </c>
+      <c r="AN33" t="inlineStr">
+        <is>
+          <t>Feestje</t>
+        </is>
+      </c>
+      <c r="AP33" t="inlineStr">
+        <is>
+          <t>boisson incluse à l'achat d'un ticket</t>
         </is>
       </c>
     </row>
@@ -6404,6 +6609,16 @@
           <t>7</t>
         </is>
       </c>
+      <c r="AP34" t="inlineStr">
+        <is>
+          <t>Livraison offerte</t>
+        </is>
+      </c>
+      <c r="AQ34" t="inlineStr">
+        <is>
+          <t>Gratis thuislevering</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -6551,29 +6766,34 @@
           <t>0,1,11</t>
         </is>
       </c>
-      <c r="AG35" t="inlineStr">
+      <c r="AH35" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AH35" t="inlineStr">
+      <c r="AI35" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AI35" t="inlineStr">
+      <c r="AJ35" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AJ35" t="inlineStr">
+      <c r="AK35" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AK35" t="inlineStr">
-        <is>
-          <t>NA</t>
+      <c r="AM35" t="inlineStr">
+        <is>
+          <t>Placement du restaurant Happy Thaï</t>
+        </is>
+      </c>
+      <c r="AP35" t="inlineStr">
+        <is>
+          <t>Nouveaux restaurants</t>
         </is>
       </c>
     </row>
@@ -6758,6 +6978,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="AM36" t="inlineStr">
+        <is>
+          <t>promouvoir les mouvements de jeunesse</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -6882,7 +7107,7 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>1, 2</t>
         </is>
       </c>
       <c r="Z37" t="inlineStr">
@@ -6902,7 +7127,7 @@
       </c>
       <c r="AC37" t="inlineStr">
         <is>
-          <t>0,11,6</t>
+          <t>6</t>
         </is>
       </c>
       <c r="AE37" t="inlineStr">
@@ -6933,6 +7158,11 @@
       <c r="AK37" t="inlineStr">
         <is>
           <t>NA</t>
+        </is>
+      </c>
+      <c r="AM37" t="inlineStr">
+        <is>
+          <t>Collaboration avec la marque de vélo Lucien</t>
         </is>
       </c>
     </row>
@@ -7112,6 +7342,11 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AM38" t="inlineStr">
+        <is>
+          <t>Poumouvoir les bienfaits du produit</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -7294,6 +7529,16 @@
           <t>9</t>
         </is>
       </c>
+      <c r="AM39" t="inlineStr">
+        <is>
+          <t>promouvoir des livraisons pas chères</t>
+        </is>
+      </c>
+      <c r="AP39" t="inlineStr">
+        <is>
+          <t>Livraison à moins de 1 euro</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -7471,6 +7716,11 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AM40" t="inlineStr">
+        <is>
+          <t>collaboration avec la marque de vélo Lucien</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -7653,6 +7903,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="AM41" t="inlineStr">
+        <is>
+          <t>Collaboration avec la marque de vélo Lucien, met en avant la Belgique</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -7830,6 +8085,16 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AM42" t="inlineStr">
+        <is>
+          <t>Mise en avant des moments familiaux</t>
+        </is>
+      </c>
+      <c r="AN42" t="inlineStr">
+        <is>
+          <t>Werknemer</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -7962,11 +8227,6 @@
           <t>10</t>
         </is>
       </c>
-      <c r="AG43" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="AH43" t="inlineStr">
         <is>
           <t>A</t>
@@ -7985,6 +8245,16 @@
       <c r="AK43" t="inlineStr">
         <is>
           <t>A</t>
+        </is>
+      </c>
+      <c r="AM43" t="inlineStr">
+        <is>
+          <t>Collaboration avec Ginette</t>
+        </is>
+      </c>
+      <c r="AP43" t="inlineStr">
+        <is>
+          <t>Entrée gratuite</t>
         </is>
       </c>
     </row>
@@ -8131,7 +8401,7 @@
       </c>
       <c r="AC44" t="inlineStr">
         <is>
-          <t>1,11,8</t>
+          <t>11</t>
         </is>
       </c>
       <c r="AE44" t="inlineStr">
@@ -8167,6 +8437,16 @@
       <c r="AK44" t="inlineStr">
         <is>
           <t>14</t>
+        </is>
+      </c>
+      <c r="AL44" t="inlineStr">
+        <is>
+          <t>mise en avant d'un professionnel de la santé (diététicienne)</t>
+        </is>
+      </c>
+      <c r="AN44" t="inlineStr">
+        <is>
+          <t>Tested and approved by a dietitian</t>
         </is>
       </c>
     </row>
@@ -8313,7 +8593,7 @@
       </c>
       <c r="AC45" t="inlineStr">
         <is>
-          <t>1,9</t>
+          <t>1, 9</t>
         </is>
       </c>
       <c r="AE45" t="inlineStr">
@@ -8483,11 +8763,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="AG46" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="AH46" t="inlineStr">
         <is>
           <t>A</t>
@@ -8837,29 +9112,34 @@
           <t>0,1,11</t>
         </is>
       </c>
-      <c r="AG48" t="inlineStr">
+      <c r="AH48" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AH48" t="inlineStr">
+      <c r="AI48" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AI48" t="inlineStr">
+      <c r="AJ48" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AJ48" t="inlineStr">
+      <c r="AK48" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AK48" t="inlineStr">
-        <is>
-          <t>NA</t>
+      <c r="AM48" t="inlineStr">
+        <is>
+          <t>Travail au sein de l'entreprise</t>
+        </is>
+      </c>
+      <c r="AP48" t="inlineStr">
+        <is>
+          <t>Avantages en tant qu'employé</t>
         </is>
       </c>
     </row>
@@ -9168,7 +9448,7 @@
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>1,3</t>
+          <t>1, 3</t>
         </is>
       </c>
       <c r="Z50" t="inlineStr">
@@ -9413,6 +9693,16 @@
           <t>1</t>
         </is>
       </c>
+      <c r="AM51" t="inlineStr">
+        <is>
+          <t>Nouvelle collection à tester</t>
+        </is>
+      </c>
+      <c r="AP51" t="inlineStr">
+        <is>
+          <t>Nouvelle collection</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -9782,6 +10072,21 @@
           <t>4b</t>
         </is>
       </c>
+      <c r="AM53" t="inlineStr">
+        <is>
+          <t>invitation à donner son avis dans les commentaires</t>
+        </is>
+      </c>
+      <c r="AN53" t="inlineStr">
+        <is>
+          <t>Kies mee de smaak</t>
+        </is>
+      </c>
+      <c r="AP53" t="inlineStr">
+        <is>
+          <t>Potentiel nouveau produit</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -9941,19 +10246,19 @@
       </c>
       <c r="AG54" t="inlineStr">
         <is>
+          <t>6, 7</t>
+        </is>
+      </c>
+      <c r="AH54" t="inlineStr">
+        <is>
           <t>6,7</t>
         </is>
       </c>
-      <c r="AH54" t="inlineStr">
+      <c r="AI54" t="inlineStr">
         <is>
           <t>6,7</t>
         </is>
       </c>
-      <c r="AI54" t="inlineStr">
-        <is>
-          <t>6,7</t>
-        </is>
-      </c>
       <c r="AJ54" t="inlineStr">
         <is>
           <t>NA</t>
@@ -9961,7 +10266,7 @@
       </c>
       <c r="AK54" t="inlineStr">
         <is>
-          <t>6,7</t>
+          <t>6, 7</t>
         </is>
       </c>
     </row>
@@ -10128,7 +10433,7 @@
       </c>
       <c r="AG55" t="inlineStr">
         <is>
-          <t>10,11,15,18,4.1</t>
+          <t>11, 15, 4.1</t>
         </is>
       </c>
       <c r="AH55" t="inlineStr">
@@ -10148,7 +10453,12 @@
       </c>
       <c r="AK55" t="inlineStr">
         <is>
-          <t>10,11,15,18,4a</t>
+          <t>11, 15, 4a</t>
+        </is>
+      </c>
+      <c r="AN55" t="inlineStr">
+        <is>
+          <t>Een kijkje in...</t>
         </is>
       </c>
     </row>
@@ -10295,7 +10605,7 @@
       </c>
       <c r="AC56" t="inlineStr">
         <is>
-          <t>1,11,2,3,6</t>
+          <t>2, 6</t>
         </is>
       </c>
       <c r="AD56" t="inlineStr">
@@ -10336,6 +10646,11 @@
       <c r="AK56" t="inlineStr">
         <is>
           <t>14</t>
+        </is>
+      </c>
+      <c r="AM56" t="inlineStr">
+        <is>
+          <t>Moments en famille</t>
         </is>
       </c>
     </row>
@@ -10462,7 +10777,7 @@
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>0,1,3,4,5</t>
+          <t>1, 3</t>
         </is>
       </c>
       <c r="Z57" t="inlineStr">
@@ -10523,6 +10838,11 @@
       <c r="AK57" t="inlineStr">
         <is>
           <t>9</t>
+        </is>
+      </c>
+      <c r="AM57" t="inlineStr">
+        <is>
+          <t>collaboration avec un restaurant</t>
         </is>
       </c>
     </row>
@@ -10712,6 +11032,11 @@
           <t>5</t>
         </is>
       </c>
+      <c r="AM58" t="inlineStr">
+        <is>
+          <t>saison estivale</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -10876,7 +11201,7 @@
       </c>
       <c r="AG59" t="inlineStr">
         <is>
-          <t>2,4.6,6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AH59" t="inlineStr">
@@ -10896,7 +11221,12 @@
       </c>
       <c r="AK59" t="inlineStr">
         <is>
-          <t>2,4f,6</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AM59" t="inlineStr">
+        <is>
+          <t>Placement d'autres produits (eau Evian)</t>
         </is>
       </c>
     </row>
@@ -11086,6 +11416,11 @@
           <t>12</t>
         </is>
       </c>
+      <c r="AM60" t="inlineStr">
+        <is>
+          <t>Fierté belge et de la compagnie</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -11210,7 +11545,7 @@
       </c>
       <c r="Y61" t="inlineStr">
         <is>
-          <t>10,7,8</t>
+          <t>8</t>
         </is>
       </c>
       <c r="Z61" t="inlineStr">
@@ -11271,6 +11606,16 @@
       <c r="AK61" t="inlineStr">
         <is>
           <t>9</t>
+        </is>
+      </c>
+      <c r="AN61" t="inlineStr">
+        <is>
+          <t>Uitdaging</t>
+        </is>
+      </c>
+      <c r="AP61" t="inlineStr">
+        <is>
+          <t>Nouveauté</t>
         </is>
       </c>
     </row>
@@ -11417,7 +11762,7 @@
       </c>
       <c r="AC62" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>1, 11</t>
         </is>
       </c>
       <c r="AD62" t="inlineStr">
@@ -11437,7 +11782,7 @@
       </c>
       <c r="AG62" t="inlineStr">
         <is>
-          <t>1,2,5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AH62" t="inlineStr">
@@ -11457,7 +11802,22 @@
       </c>
       <c r="AK62" t="inlineStr">
         <is>
-          <t>1,2,5</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AL62" t="inlineStr">
+        <is>
+          <t>blue Monday</t>
+        </is>
+      </c>
+      <c r="AM62" t="inlineStr">
+        <is>
+          <t>Mention du Blue Monday</t>
+        </is>
+      </c>
+      <c r="AN62" t="inlineStr">
+        <is>
+          <t>Blue Monday</t>
         </is>
       </c>
     </row>
@@ -11604,7 +11964,7 @@
       </c>
       <c r="AC63" t="inlineStr">
         <is>
-          <t>1,11,2,3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AE63" t="inlineStr">
@@ -11640,6 +12000,11 @@
       <c r="AK63" t="inlineStr">
         <is>
           <t>14</t>
+        </is>
+      </c>
+      <c r="AM63" t="inlineStr">
+        <is>
+          <t>sorties à l'extérieur</t>
         </is>
       </c>
     </row>
@@ -11829,6 +12194,16 @@
           <t>9</t>
         </is>
       </c>
+      <c r="AM64" t="inlineStr">
+        <is>
+          <t>Faire participer au concours</t>
+        </is>
+      </c>
+      <c r="AP64" t="inlineStr">
+        <is>
+          <t>invite à aller sur le site pour participer au vote</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -11973,7 +12348,7 @@
       </c>
       <c r="AC65" t="inlineStr">
         <is>
-          <t>0,11,7,9</t>
+          <t>11</t>
         </is>
       </c>
       <c r="AD65" t="inlineStr">
@@ -12014,6 +12389,16 @@
       <c r="AK65" t="inlineStr">
         <is>
           <t>8</t>
+        </is>
+      </c>
+      <c r="AM65" t="inlineStr">
+        <is>
+          <t>inspirations recettes</t>
+        </is>
+      </c>
+      <c r="AN65" t="inlineStr">
+        <is>
+          <t>Recept</t>
         </is>
       </c>
     </row>
@@ -12203,6 +12588,16 @@
           <t>12</t>
         </is>
       </c>
+      <c r="AM66" t="inlineStr">
+        <is>
+          <t>Mise en avant de l'impact environnemental faible du produit</t>
+        </is>
+      </c>
+      <c r="AN66" t="inlineStr">
+        <is>
+          <t>Eco-score</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -12350,29 +12745,29 @@
           <t>0,11,8</t>
         </is>
       </c>
-      <c r="AG67" t="inlineStr">
+      <c r="AH67" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AH67" t="inlineStr">
+      <c r="AI67" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AI67" t="inlineStr">
+      <c r="AJ67" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AJ67" t="inlineStr">
+      <c r="AK67" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AK67" t="inlineStr">
-        <is>
-          <t>NA</t>
+      <c r="AM67" t="inlineStr">
+        <is>
+          <t>Soutient aux pères de famille</t>
         </is>
       </c>
     </row>
@@ -12519,7 +12914,7 @@
       </c>
       <c r="AC68" t="inlineStr">
         <is>
-          <t>0,11,8</t>
+          <t>11</t>
         </is>
       </c>
       <c r="AD68" t="inlineStr">
@@ -12560,6 +12955,26 @@
       <c r="AK68" t="inlineStr">
         <is>
           <t>9</t>
+        </is>
+      </c>
+      <c r="AL68" t="inlineStr">
+        <is>
+          <t>reconnaissance du nouveau produit</t>
+        </is>
+      </c>
+      <c r="AN68" t="inlineStr">
+        <is>
+          <t>Creëren van een uitdaging onder vrienden</t>
+        </is>
+      </c>
+      <c r="AO68" t="inlineStr">
+        <is>
+          <t>annonce d'un nouveau produit</t>
+        </is>
+      </c>
+      <c r="AP68" t="inlineStr">
+        <is>
+          <t>Nouveauté</t>
         </is>
       </c>
     </row>
@@ -12749,6 +13164,16 @@
           <t>8</t>
         </is>
       </c>
+      <c r="AM69" t="inlineStr">
+        <is>
+          <t>émission</t>
+        </is>
+      </c>
+      <c r="AO69" t="inlineStr">
+        <is>
+          <t>regarder la vidéo pour utiliser les mêmes ingrédients pour la recette</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -12936,6 +13361,11 @@
           <t>15,16,2,3</t>
         </is>
       </c>
+      <c r="AM70" t="inlineStr">
+        <is>
+          <t>Pour les sorties avec son bébé</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -13118,6 +13548,16 @@
           <t>9</t>
         </is>
       </c>
+      <c r="AM71" t="inlineStr">
+        <is>
+          <t>Inviter à participer au vote</t>
+        </is>
+      </c>
+      <c r="AP71" t="inlineStr">
+        <is>
+          <t>Se rendre sur le site web pour voter</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -13250,11 +13690,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="AG72" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="AH72" t="inlineStr">
         <is>
           <t>A</t>
@@ -13273,6 +13708,11 @@
       <c r="AK72" t="inlineStr">
         <is>
           <t>A</t>
+        </is>
+      </c>
+      <c r="AO72" t="inlineStr">
+        <is>
+          <t>Mise en avant du fait que les bières contiennent 0% d'alcool mais 100% de goût</t>
         </is>
       </c>
     </row>
@@ -13419,7 +13859,7 @@
       </c>
       <c r="AC73" t="inlineStr">
         <is>
-          <t>1,11,3,9</t>
+          <t>9</t>
         </is>
       </c>
       <c r="AD73" t="inlineStr">
@@ -13460,6 +13900,11 @@
       <c r="AK73" t="inlineStr">
         <is>
           <t>5</t>
+        </is>
+      </c>
+      <c r="AN73" t="inlineStr">
+        <is>
+          <t>Internationale dag van de ijsbeer</t>
         </is>
       </c>
     </row>
@@ -13644,6 +14089,11 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AP74" t="inlineStr">
+        <is>
+          <t>Inviter à commander en ligne sur leur site</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -13831,6 +14281,11 @@
           <t>14</t>
         </is>
       </c>
+      <c r="AM75" t="inlineStr">
+        <is>
+          <t>saison automnale et sorties dehors</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -14018,6 +14473,11 @@
           <t>14</t>
         </is>
       </c>
+      <c r="AM76" t="inlineStr">
+        <is>
+          <t>Promouvoir folder en ligne</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -14162,32 +14622,32 @@
       </c>
       <c r="AC77" t="inlineStr">
         <is>
-          <t>1,11,7</t>
-        </is>
-      </c>
-      <c r="AG77" t="inlineStr">
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AH77" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AH77" t="inlineStr">
+      <c r="AI77" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AI77" t="inlineStr">
+      <c r="AJ77" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AJ77" t="inlineStr">
+      <c r="AK77" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AK77" t="inlineStr">
-        <is>
-          <t>NA</t>
+      <c r="AM77" t="inlineStr">
+        <is>
+          <t>collaboration avec d'autres marques (JBL)</t>
         </is>
       </c>
     </row>
@@ -14337,11 +14797,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="AG78" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="AH78" t="inlineStr">
         <is>
           <t>NA</t>
@@ -14541,7 +14996,22 @@
       </c>
       <c r="AK79" t="inlineStr">
         <is>
-          <t>2,9,NA</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AL79" t="inlineStr">
+        <is>
+          <t>gagner des gains</t>
+        </is>
+      </c>
+      <c r="AM79" t="inlineStr">
+        <is>
+          <t>Collaboration avec un Hotel</t>
+        </is>
+      </c>
+      <c r="AP79" t="inlineStr">
+        <is>
+          <t>Aller sur le site Web</t>
         </is>
       </c>
     </row>
@@ -14726,6 +15196,16 @@
           <t>12</t>
         </is>
       </c>
+      <c r="AM80" t="inlineStr">
+        <is>
+          <t>Objectifs de la marque et invite à se rendre sur leur site Web pour plus d'infos</t>
+        </is>
+      </c>
+      <c r="AN80" t="inlineStr">
+        <is>
+          <t>Duurzaamheid</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -14913,6 +15393,16 @@
           <t>1</t>
         </is>
       </c>
+      <c r="AM81" t="inlineStr">
+        <is>
+          <t>Fête d'anniversaire</t>
+        </is>
+      </c>
+      <c r="AN81" t="inlineStr">
+        <is>
+          <t>Gepersonaliseerde producten</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -15077,7 +15567,7 @@
       </c>
       <c r="AG82" t="inlineStr">
         <is>
-          <t>15,16,99</t>
+          <t>16</t>
         </is>
       </c>
       <c r="AH82" t="inlineStr">
@@ -15097,7 +15587,22 @@
       </c>
       <c r="AK82" t="inlineStr">
         <is>
-          <t>15,16,NA</t>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="AL82" t="inlineStr">
+        <is>
+          <t>événement BLACK FRIDAY</t>
+        </is>
+      </c>
+      <c r="AM82" t="inlineStr">
+        <is>
+          <t>Evénement black Friday</t>
+        </is>
+      </c>
+      <c r="AN82" t="inlineStr">
+        <is>
+          <t>Black Friday</t>
         </is>
       </c>
     </row>
@@ -15287,6 +15792,11 @@
           <t>14</t>
         </is>
       </c>
+      <c r="AM83" t="inlineStr">
+        <is>
+          <t>Met en avant les sorties dehors</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -15451,19 +15961,19 @@
       </c>
       <c r="AG84" t="inlineStr">
         <is>
+          <t>18, 3</t>
+        </is>
+      </c>
+      <c r="AH84" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AI84" t="inlineStr">
+        <is>
           <t>12,18,3</t>
         </is>
       </c>
-      <c r="AH84" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AI84" t="inlineStr">
-        <is>
-          <t>12,18,3</t>
-        </is>
-      </c>
       <c r="AJ84" t="inlineStr">
         <is>
           <t>18</t>
@@ -15471,7 +15981,12 @@
       </c>
       <c r="AK84" t="inlineStr">
         <is>
-          <t>12,18,3</t>
+          <t>18, 3</t>
+        </is>
+      </c>
+      <c r="AM84" t="inlineStr">
+        <is>
+          <t>nouveauté</t>
         </is>
       </c>
     </row>
@@ -15653,7 +16168,12 @@
       </c>
       <c r="AK85" t="inlineStr">
         <is>
-          <t>4d,4e,NA</t>
+          <t>4e</t>
+        </is>
+      </c>
+      <c r="AM85" t="inlineStr">
+        <is>
+          <t>participation à un mouvement sur les réseaux sociaux, fierté belge</t>
         </is>
       </c>
     </row>
@@ -15820,7 +16340,7 @@
       </c>
       <c r="AG86" t="inlineStr">
         <is>
-          <t>15,16,2,99</t>
+          <t>16</t>
         </is>
       </c>
       <c r="AH86" t="inlineStr">
@@ -15840,7 +16360,12 @@
       </c>
       <c r="AK86" t="inlineStr">
         <is>
-          <t>15,16,2,NA</t>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="AM86" t="inlineStr">
+        <is>
+          <t>Partage de recette</t>
         </is>
       </c>
     </row>
@@ -16030,6 +16555,16 @@
           <t>9</t>
         </is>
       </c>
+      <c r="AM87" t="inlineStr">
+        <is>
+          <t>collaboration avec un restaurant</t>
+        </is>
+      </c>
+      <c r="AP87" t="inlineStr">
+        <is>
+          <t>invite à commander en ligne</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -16217,6 +16752,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="AM88" t="inlineStr">
+        <is>
+          <t>Amateurs de patisseries</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -16381,7 +16921,7 @@
       </c>
       <c r="AG89" t="inlineStr">
         <is>
-          <t>4.2,5,7</t>
+          <t>7</t>
         </is>
       </c>
       <c r="AH89" t="inlineStr">
@@ -16401,7 +16941,12 @@
       </c>
       <c r="AK89" t="inlineStr">
         <is>
-          <t>4b,5,7</t>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AN89" t="inlineStr">
+        <is>
+          <t>Single's day</t>
         </is>
       </c>
     </row>
@@ -16546,11 +17091,6 @@
           <t>10</t>
         </is>
       </c>
-      <c r="AG90" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="AH90" t="inlineStr">
         <is>
           <t>A</t>
@@ -16748,6 +17288,11 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AM91" t="inlineStr">
+        <is>
+          <t>invitation pour participer à un mouvement sur les réseaux</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -16895,29 +17440,29 @@
           <t>1,11,9</t>
         </is>
       </c>
-      <c r="AG92" t="inlineStr">
+      <c r="AH92" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AH92" t="inlineStr">
+      <c r="AI92" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AI92" t="inlineStr">
+      <c r="AJ92" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AJ92" t="inlineStr">
+      <c r="AK92" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AK92" t="inlineStr">
-        <is>
-          <t>NA</t>
+      <c r="AN92" t="inlineStr">
+        <is>
+          <t>Wereldbijendag</t>
         </is>
       </c>
     </row>
@@ -17107,6 +17652,16 @@
           <t>11</t>
         </is>
       </c>
+      <c r="AM93" t="inlineStr">
+        <is>
+          <t>Propose des recettes, met en avant les petits déjeuners</t>
+        </is>
+      </c>
+      <c r="AN93" t="inlineStr">
+        <is>
+          <t>Recept</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -17294,6 +17849,11 @@
           <t>1,4b,NA</t>
         </is>
       </c>
+      <c r="AM94" t="inlineStr">
+        <is>
+          <t>Nouveauté</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -17426,11 +17986,6 @@
           <t>10</t>
         </is>
       </c>
-      <c r="AG95" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="AH95" t="inlineStr">
         <is>
           <t>A</t>
@@ -17449,6 +18004,16 @@
       <c r="AK95" t="inlineStr">
         <is>
           <t>A</t>
+        </is>
+      </c>
+      <c r="AM95" t="inlineStr">
+        <is>
+          <t>collaboration avec Ginette</t>
+        </is>
+      </c>
+      <c r="AP95" t="inlineStr">
+        <is>
+          <t>événement spécial entrée gratuite</t>
         </is>
       </c>
     </row>
@@ -17583,11 +18148,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="AG96" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="AH96" t="inlineStr">
         <is>
           <t>A</t>
@@ -17606,6 +18166,11 @@
       <c r="AK96" t="inlineStr">
         <is>
           <t>A</t>
+        </is>
+      </c>
+      <c r="AM96" t="inlineStr">
+        <is>
+          <t>saison printanière</t>
         </is>
       </c>
     </row>
@@ -17772,7 +18337,7 @@
       </c>
       <c r="AG97" t="inlineStr">
         <is>
-          <t>12,15,8,99</t>
+          <t>12</t>
         </is>
       </c>
       <c r="AH97" t="inlineStr">
@@ -17792,7 +18357,12 @@
       </c>
       <c r="AK97" t="inlineStr">
         <is>
-          <t>12,15,8,NA</t>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="AM97" t="inlineStr">
+        <is>
+          <t>idée de recette</t>
         </is>
       </c>
     </row>
@@ -17982,6 +18552,16 @@
           <t>4b</t>
         </is>
       </c>
+      <c r="AM98" t="inlineStr">
+        <is>
+          <t>Nouveauté, invite à donner son avis en commentaires/voter</t>
+        </is>
+      </c>
+      <c r="AN98" t="inlineStr">
+        <is>
+          <t>Kies mee</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -18156,7 +18736,12 @@
       </c>
       <c r="AK99" t="inlineStr">
         <is>
-          <t>10,15,16,3,A</t>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="AM99" t="inlineStr">
+        <is>
+          <t>Donne des idées de recettes</t>
         </is>
       </c>
     </row>
@@ -18510,7 +19095,7 @@
       </c>
       <c r="AG101" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>15, 4.1, 4.2</t>
         </is>
       </c>
       <c r="AH101" t="inlineStr">
@@ -18530,7 +19115,7 @@
       </c>
       <c r="AK101" t="inlineStr">
         <is>
-          <t>4a</t>
+          <t>15, 4a, 4b</t>
         </is>
       </c>
     </row>
@@ -18720,6 +19305,11 @@
           <t>16</t>
         </is>
       </c>
+      <c r="AN102" t="inlineStr">
+        <is>
+          <t>Italiaanse nationale feestdag</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -18864,7 +19454,7 @@
       </c>
       <c r="AC103" t="inlineStr">
         <is>
-          <t>0,11,8</t>
+          <t>11</t>
         </is>
       </c>
       <c r="AD103" t="inlineStr">
@@ -18905,6 +19495,26 @@
       <c r="AK103" t="inlineStr">
         <is>
           <t>16</t>
+        </is>
+      </c>
+      <c r="AL103" t="inlineStr">
+        <is>
+          <t>Reconnaissances : 100% naturel , un pack de 4</t>
+        </is>
+      </c>
+      <c r="AM103" t="inlineStr">
+        <is>
+          <t>Mention des magasins où trouver le produit</t>
+        </is>
+      </c>
+      <c r="AO103" t="inlineStr">
+        <is>
+          <t>mise en avant : 100% naturale</t>
+        </is>
+      </c>
+      <c r="AP103" t="inlineStr">
+        <is>
+          <t>Nouveau packaging</t>
         </is>
       </c>
     </row>
@@ -19094,6 +19704,21 @@
           <t>12</t>
         </is>
       </c>
+      <c r="AN104" t="inlineStr">
+        <is>
+          <t>Inschrijven nieuwsbrief</t>
+        </is>
+      </c>
+      <c r="AO104" t="inlineStr">
+        <is>
+          <t>s'inscrire à la newsletter ce qui incite a acheter les produits</t>
+        </is>
+      </c>
+      <c r="AP104" t="inlineStr">
+        <is>
+          <t>Newsletter pour idées de recettes</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -19281,6 +19906,11 @@
           <t>4c</t>
         </is>
       </c>
+      <c r="AP105" t="inlineStr">
+        <is>
+          <t>essai gratuit</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -19445,7 +20075,7 @@
       </c>
       <c r="AG106" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>15, 4.1, 4.2, 6</t>
         </is>
       </c>
       <c r="AH106" t="inlineStr">
@@ -19465,7 +20095,7 @@
       </c>
       <c r="AK106" t="inlineStr">
         <is>
-          <t>4a</t>
+          <t>15, 4a, 4b, 6</t>
         </is>
       </c>
     </row>
@@ -19632,27 +20262,37 @@
       </c>
       <c r="AG107" t="inlineStr">
         <is>
+          <t>12, 15</t>
+        </is>
+      </c>
+      <c r="AH107" t="inlineStr">
+        <is>
+          <t>12,13,15</t>
+        </is>
+      </c>
+      <c r="AI107" t="inlineStr">
+        <is>
+          <t>12,15,16,3</t>
+        </is>
+      </c>
+      <c r="AJ107" t="inlineStr">
+        <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AH107" t="inlineStr">
-        <is>
-          <t>12,13,15</t>
-        </is>
-      </c>
-      <c r="AI107" t="inlineStr">
-        <is>
-          <t>12,15,16,3</t>
-        </is>
-      </c>
-      <c r="AJ107" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
       <c r="AK107" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>12, 15</t>
+        </is>
+      </c>
+      <c r="AM107" t="inlineStr">
+        <is>
+          <t>saison estivale</t>
+        </is>
+      </c>
+      <c r="AN107" t="inlineStr">
+        <is>
+          <t>Recept</t>
         </is>
       </c>
     </row>
@@ -19819,7 +20459,7 @@
       </c>
       <c r="AG108" t="inlineStr">
         <is>
-          <t>1,18,2,4.2,4.3</t>
+          <t>1, 2, 4.2</t>
         </is>
       </c>
       <c r="AH108" t="inlineStr">
@@ -19839,7 +20479,7 @@
       </c>
       <c r="AK108" t="inlineStr">
         <is>
-          <t>1,18,2,4b,4c</t>
+          <t>1, 2, 4b</t>
         </is>
       </c>
     </row>
@@ -20024,6 +20664,16 @@
           <t>7</t>
         </is>
       </c>
+      <c r="AM109" t="inlineStr">
+        <is>
+          <t>Nouveauté</t>
+        </is>
+      </c>
+      <c r="AO109" t="inlineStr">
+        <is>
+          <t>Découverte du nouveau produit</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -20355,7 +21005,7 @@
       </c>
       <c r="AC111" t="inlineStr">
         <is>
-          <t>1,11,3</t>
+          <t>1, 11</t>
         </is>
       </c>
       <c r="AD111" t="inlineStr">
@@ -20375,19 +21025,19 @@
       </c>
       <c r="AG111" t="inlineStr">
         <is>
+          <t>15, 2</t>
+        </is>
+      </c>
+      <c r="AH111" t="inlineStr">
+        <is>
           <t>15,2</t>
         </is>
       </c>
-      <c r="AH111" t="inlineStr">
+      <c r="AI111" t="inlineStr">
         <is>
           <t>15,2</t>
         </is>
       </c>
-      <c r="AI111" t="inlineStr">
-        <is>
-          <t>15,2</t>
-        </is>
-      </c>
       <c r="AJ111" t="inlineStr">
         <is>
           <t>2</t>
@@ -20395,7 +21045,17 @@
       </c>
       <c r="AK111" t="inlineStr">
         <is>
-          <t>15,2</t>
+          <t>15, 2</t>
+        </is>
+      </c>
+      <c r="AL111" t="inlineStr">
+        <is>
+          <t>"BIO"</t>
+        </is>
+      </c>
+      <c r="AM111" t="inlineStr">
+        <is>
+          <t>Goûter idéal</t>
         </is>
       </c>
     </row>
@@ -20522,7 +21182,7 @@
       </c>
       <c r="Y112" t="inlineStr">
         <is>
-          <t>1,3,5,7,8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Z112" t="inlineStr">
@@ -20583,6 +21243,11 @@
       <c r="AK112" t="inlineStr">
         <is>
           <t>9</t>
+        </is>
+      </c>
+      <c r="AM112" t="inlineStr">
+        <is>
+          <t>Collaboration avec Uber Eats</t>
         </is>
       </c>
     </row>
@@ -20729,7 +21394,7 @@
       </c>
       <c r="AC113" t="inlineStr">
         <is>
-          <t>0,1,11,9</t>
+          <t>11</t>
         </is>
       </c>
       <c r="AD113" t="inlineStr">
@@ -20765,6 +21430,16 @@
       <c r="AK113" t="inlineStr">
         <is>
           <t>NA</t>
+        </is>
+      </c>
+      <c r="AL113" t="inlineStr">
+        <is>
+          <t>Événement : rentrée scolaire</t>
+        </is>
+      </c>
+      <c r="AM113" t="inlineStr">
+        <is>
+          <t>saison estivale</t>
         </is>
       </c>
     </row>
@@ -21126,6 +21801,21 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AL115" t="inlineStr">
+        <is>
+          <t>Personne directement détenu par l'entreprise</t>
+        </is>
+      </c>
+      <c r="AO115" t="inlineStr">
+        <is>
+          <t>Site web : incitatation à se rendre sur le site web</t>
+        </is>
+      </c>
+      <c r="AP115" t="inlineStr">
+        <is>
+          <t>Site internet</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -21313,6 +22003,21 @@
           <t>3</t>
         </is>
       </c>
+      <c r="AL116" t="inlineStr">
+        <is>
+          <t>Personne détenue pour la pub</t>
+        </is>
+      </c>
+      <c r="AM116" t="inlineStr">
+        <is>
+          <t>Inviter à réagir dans les commentaires</t>
+        </is>
+      </c>
+      <c r="AN116" t="inlineStr">
+        <is>
+          <t>Consument betrekken</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -21500,6 +22205,21 @@
           <t>9</t>
         </is>
       </c>
+      <c r="AM117" t="inlineStr">
+        <is>
+          <t>Collaboration avec Takeaway</t>
+        </is>
+      </c>
+      <c r="AP117" t="inlineStr">
+        <is>
+          <t>Livraison offerte</t>
+        </is>
+      </c>
+      <c r="AQ117" t="inlineStr">
+        <is>
+          <t>Geen leveringskost</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -21659,7 +22379,7 @@
       </c>
       <c r="AG118" t="inlineStr">
         <is>
-          <t>10,11,15</t>
+          <t>10, 11, 15</t>
         </is>
       </c>
       <c r="AH118" t="inlineStr">
@@ -21679,7 +22399,27 @@
       </c>
       <c r="AK118" t="inlineStr">
         <is>
-          <t>10,11,13,15,16,4b,NA</t>
+          <t>10, 11, 15</t>
+        </is>
+      </c>
+      <c r="AM118" t="inlineStr">
+        <is>
+          <t>Collaboration avec Carrefour</t>
+        </is>
+      </c>
+      <c r="AO118" t="inlineStr">
+        <is>
+          <t>site web</t>
+        </is>
+      </c>
+      <c r="AP118" t="inlineStr">
+        <is>
+          <t>Livraison gratuite</t>
+        </is>
+      </c>
+      <c r="AQ118" t="inlineStr">
+        <is>
+          <t>Gratis levering</t>
         </is>
       </c>
     </row>
@@ -21869,6 +22609,26 @@
           <t>1</t>
         </is>
       </c>
+      <c r="AL119" t="inlineStr">
+        <is>
+          <t>Personnage choisi par le consommateur (personnalisation) / Événement important</t>
+        </is>
+      </c>
+      <c r="AM119" t="inlineStr">
+        <is>
+          <t>événement familial</t>
+        </is>
+      </c>
+      <c r="AN119" t="inlineStr">
+        <is>
+          <t>Gepersonaliseerde producten</t>
+        </is>
+      </c>
+      <c r="AO119" t="inlineStr">
+        <is>
+          <t>Personnalisation</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -22238,6 +22998,21 @@
           <t>11</t>
         </is>
       </c>
+      <c r="AM121" t="inlineStr">
+        <is>
+          <t>mise en avant de la durabilité, ivitation à communiquer ses idées dans les commentaires</t>
+        </is>
+      </c>
+      <c r="AN121" t="inlineStr">
+        <is>
+          <t>Restjesdag</t>
+        </is>
+      </c>
+      <c r="AO121" t="inlineStr">
+        <is>
+          <t>site web</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -22420,6 +23195,11 @@
           <t>14,15,16,18,9,NA</t>
         </is>
       </c>
+      <c r="AM122" t="inlineStr">
+        <is>
+          <t>Pause lunch</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -22607,6 +23387,11 @@
           <t>4c</t>
         </is>
       </c>
+      <c r="AM123" t="inlineStr">
+        <is>
+          <t>Picnic, mention de la photographe</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -22751,32 +23536,37 @@
       </c>
       <c r="AC124" t="inlineStr">
         <is>
-          <t>11,7</t>
-        </is>
-      </c>
-      <c r="AG124" t="inlineStr">
+          <t>11, 7</t>
+        </is>
+      </c>
+      <c r="AH124" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AH124" t="inlineStr">
+      <c r="AI124" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AI124" t="inlineStr">
+      <c r="AJ124" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AJ124" t="inlineStr">
+      <c r="AK124" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AK124" t="inlineStr">
-        <is>
-          <t>NA</t>
+      <c r="AM124" t="inlineStr">
+        <is>
+          <t>révélation nouveau packaging</t>
+        </is>
+      </c>
+      <c r="AN124" t="inlineStr">
+        <is>
+          <t>Koningskoppel</t>
         </is>
       </c>
     </row>
@@ -22923,32 +23713,42 @@
       </c>
       <c r="AC125" t="inlineStr">
         <is>
-          <t>11,7</t>
-        </is>
-      </c>
-      <c r="AG125" t="inlineStr">
+          <t>11, 7</t>
+        </is>
+      </c>
+      <c r="AH125" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AH125" t="inlineStr">
+      <c r="AI125" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AI125" t="inlineStr">
+      <c r="AJ125" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AJ125" t="inlineStr">
+      <c r="AK125" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AK125" t="inlineStr">
-        <is>
-          <t>NA</t>
+      <c r="AM125" t="inlineStr">
+        <is>
+          <t>nouveau packaging révélé</t>
+        </is>
+      </c>
+      <c r="AN125" t="inlineStr">
+        <is>
+          <t>Koningskoppel</t>
+        </is>
+      </c>
+      <c r="AP125" t="inlineStr">
+        <is>
+          <t>Nouveau packaging</t>
         </is>
       </c>
     </row>
@@ -23115,19 +23915,19 @@
       </c>
       <c r="AG126" t="inlineStr">
         <is>
+          <t>12, 15</t>
+        </is>
+      </c>
+      <c r="AH126" t="inlineStr">
+        <is>
           <t>12,15</t>
         </is>
       </c>
-      <c r="AH126" t="inlineStr">
+      <c r="AI126" t="inlineStr">
         <is>
           <t>12,15</t>
         </is>
       </c>
-      <c r="AI126" t="inlineStr">
-        <is>
-          <t>12,15</t>
-        </is>
-      </c>
       <c r="AJ126" t="inlineStr">
         <is>
           <t>12</t>
@@ -23135,7 +23935,12 @@
       </c>
       <c r="AK126" t="inlineStr">
         <is>
-          <t>12,15</t>
+          <t>12, 15</t>
+        </is>
+      </c>
+      <c r="AL126" t="inlineStr">
+        <is>
+          <t>saison : automne</t>
         </is>
       </c>
     </row>
@@ -23325,6 +24130,16 @@
           <t>1</t>
         </is>
       </c>
+      <c r="AM127" t="inlineStr">
+        <is>
+          <t>Nouveau packaging, formes de chocolats typiques de la marque mises en avant</t>
+        </is>
+      </c>
+      <c r="AP127" t="inlineStr">
+        <is>
+          <t>Nouveau packaging</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -23502,6 +24317,31 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AM128" t="inlineStr">
+        <is>
+          <t>Activité familiale mise en avant</t>
+        </is>
+      </c>
+      <c r="AN128" t="inlineStr">
+        <is>
+          <t>Gratis Family Experience</t>
+        </is>
+      </c>
+      <c r="AO128" t="inlineStr">
+        <is>
+          <t>Chasse aux trésors - activité</t>
+        </is>
+      </c>
+      <c r="AP128" t="inlineStr">
+        <is>
+          <t>Activité gratuite organisée par la compagnie</t>
+        </is>
+      </c>
+      <c r="AQ128" t="inlineStr">
+        <is>
+          <t>Gratis Family Experience</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -23679,6 +24519,16 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AP129" t="inlineStr">
+        <is>
+          <t>tester des produits gratuitement</t>
+        </is>
+      </c>
+      <c r="AQ129" t="inlineStr">
+        <is>
+          <t>Gratis</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -24043,6 +24893,16 @@
           <t>14</t>
         </is>
       </c>
+      <c r="AM131" t="inlineStr">
+        <is>
+          <t>mention d'un magasin en particulier + mise en avant d'unavec fabriquant</t>
+        </is>
+      </c>
+      <c r="AP131" t="inlineStr">
+        <is>
+          <t>nouvelle gamme en magasin</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -24207,7 +25067,7 @@
       </c>
       <c r="AG132" t="inlineStr">
         <is>
-          <t>15,4.1,4.2,6</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="AH132" t="inlineStr">
@@ -24227,7 +25087,12 @@
       </c>
       <c r="AK132" t="inlineStr">
         <is>
-          <t>15,4a,4b,6</t>
+          <t>4a</t>
+        </is>
+      </c>
+      <c r="AM132" t="inlineStr">
+        <is>
+          <t>Motiver à bien commencer la journée</t>
         </is>
       </c>
     </row>
@@ -24417,6 +25282,16 @@
           <t>9</t>
         </is>
       </c>
+      <c r="AM133" t="inlineStr">
+        <is>
+          <t>Collaboration avec un restaurant en particulier</t>
+        </is>
+      </c>
+      <c r="AP133" t="inlineStr">
+        <is>
+          <t>Incite à se rendre sur le site Web</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -24594,6 +25469,11 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AP134" t="inlineStr">
+        <is>
+          <t>Tout type de promotions, inciter à se rendre sur le site Web</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -24738,7 +25618,7 @@
       </c>
       <c r="AC135" t="inlineStr">
         <is>
-          <t>11,7</t>
+          <t>11, 7</t>
         </is>
       </c>
       <c r="AE135" t="inlineStr">
@@ -24769,6 +25649,21 @@
       <c r="AK135" t="inlineStr">
         <is>
           <t>NA</t>
+        </is>
+      </c>
+      <c r="AM135" t="inlineStr">
+        <is>
+          <t>choix du design en commentaires</t>
+        </is>
+      </c>
+      <c r="AN135" t="inlineStr">
+        <is>
+          <t>Koningskoppel en 'stem mee'</t>
+        </is>
+      </c>
+      <c r="AP135" t="inlineStr">
+        <is>
+          <t>Nouveau design de packaging</t>
         </is>
       </c>
     </row>
@@ -24930,7 +25825,7 @@
       </c>
       <c r="AG136" t="inlineStr">
         <is>
-          <t>10,11,15</t>
+          <t>10, 11, 15</t>
         </is>
       </c>
       <c r="AH136" t="inlineStr">
@@ -24950,7 +25845,22 @@
       </c>
       <c r="AK136" t="inlineStr">
         <is>
-          <t>10,11,13,15,16,4b,NA</t>
+          <t>10, 11, 15</t>
+        </is>
+      </c>
+      <c r="AM136" t="inlineStr">
+        <is>
+          <t>Collaboration avec le magasin Carrefour</t>
+        </is>
+      </c>
+      <c r="AP136" t="inlineStr">
+        <is>
+          <t>livraison offerte, incite à se rendre sur leur site Web</t>
+        </is>
+      </c>
+      <c r="AQ136" t="inlineStr">
+        <is>
+          <t>Gratis levering</t>
         </is>
       </c>
     </row>
@@ -25077,7 +25987,7 @@
       </c>
       <c r="Y137" t="inlineStr">
         <is>
-          <t>5,7</t>
+          <t>5, 7</t>
         </is>
       </c>
       <c r="Z137" t="inlineStr">
@@ -25097,7 +26007,7 @@
       </c>
       <c r="AC137" t="inlineStr">
         <is>
-          <t>1,3,9</t>
+          <t>3, 9</t>
         </is>
       </c>
       <c r="AF137" t="inlineStr">
@@ -25277,29 +26187,39 @@
           <t>0,1,11</t>
         </is>
       </c>
-      <c r="AG138" t="inlineStr">
+      <c r="AH138" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AH138" t="inlineStr">
+      <c r="AI138" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AI138" t="inlineStr">
+      <c r="AJ138" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AJ138" t="inlineStr">
+      <c r="AK138" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AK138" t="inlineStr">
-        <is>
-          <t>NA</t>
+      <c r="AM138" t="inlineStr">
+        <is>
+          <t>Sortie en famille, collaboration avec le jardin botanique de Meise</t>
+        </is>
+      </c>
+      <c r="AP138" t="inlineStr">
+        <is>
+          <t>Activité gratuite organisée par la marque</t>
+        </is>
+      </c>
+      <c r="AQ138" t="inlineStr">
+        <is>
+          <t>Gratuit Family Experience</t>
         </is>
       </c>
     </row>
@@ -25489,6 +26409,21 @@
           <t>5</t>
         </is>
       </c>
+      <c r="AM139" t="inlineStr">
+        <is>
+          <t>Nouveauté (?)</t>
+        </is>
+      </c>
+      <c r="AO139" t="inlineStr">
+        <is>
+          <t>découverte</t>
+        </is>
+      </c>
+      <c r="AP139" t="inlineStr">
+        <is>
+          <t>Nouveauté (?)</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -25676,6 +26611,11 @@
           <t>3</t>
         </is>
       </c>
+      <c r="AO140" t="inlineStr">
+        <is>
+          <t>site web</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -25853,6 +26793,16 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AO141" t="inlineStr">
+        <is>
+          <t>invitation pour la découverte</t>
+        </is>
+      </c>
+      <c r="AP141" t="inlineStr">
+        <is>
+          <t>Nouveau magasin</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -26017,19 +26967,19 @@
       </c>
       <c r="AG142" t="inlineStr">
         <is>
+          <t>18, 3</t>
+        </is>
+      </c>
+      <c r="AH142" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AI142" t="inlineStr">
+        <is>
           <t>18,3</t>
         </is>
       </c>
-      <c r="AH142" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AI142" t="inlineStr">
-        <is>
-          <t>18,3</t>
-        </is>
-      </c>
       <c r="AJ142" t="inlineStr">
         <is>
           <t>18</t>
@@ -26037,7 +26987,12 @@
       </c>
       <c r="AK142" t="inlineStr">
         <is>
-          <t>18,3</t>
+          <t>18, 3</t>
+        </is>
+      </c>
+      <c r="AP142" t="inlineStr">
+        <is>
+          <t>nouveauté</t>
         </is>
       </c>
     </row>
@@ -26414,6 +27369,16 @@
           <t>3</t>
         </is>
       </c>
+      <c r="AL144" t="inlineStr">
+        <is>
+          <t>découverte d'un nouveau produit</t>
+        </is>
+      </c>
+      <c r="AP144" t="inlineStr">
+        <is>
+          <t>Nouveauté</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -26538,7 +27503,7 @@
       </c>
       <c r="Y145" t="inlineStr">
         <is>
-          <t>10,5</t>
+          <t>10, 5</t>
         </is>
       </c>
       <c r="Z145" t="inlineStr">
@@ -26558,7 +27523,7 @@
       </c>
       <c r="AC145" t="inlineStr">
         <is>
-          <t>1,3,9</t>
+          <t>1, 9</t>
         </is>
       </c>
       <c r="AD145" t="inlineStr">
@@ -26599,6 +27564,16 @@
       <c r="AK145" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+      <c r="AP145" t="inlineStr">
+        <is>
+          <t>Evénement et produits distribués</t>
+        </is>
+      </c>
+      <c r="AQ145" t="inlineStr">
+        <is>
+          <t>Gratis</t>
         </is>
       </c>
     </row>
@@ -26788,6 +27763,16 @@
           <t>2</t>
         </is>
       </c>
+      <c r="AM146" t="inlineStr">
+        <is>
+          <t>Mise en avant des actions caritatives</t>
+        </is>
+      </c>
+      <c r="AN146" t="inlineStr">
+        <is>
+          <t>Inspelen op jeugdbeweging - koekjesverkoop</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -26932,7 +27917,7 @@
       </c>
       <c r="AC147" t="inlineStr">
         <is>
-          <t>1,11,2,3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AD147" t="inlineStr">
@@ -26973,6 +27958,11 @@
       <c r="AK147" t="inlineStr">
         <is>
           <t>14</t>
+        </is>
+      </c>
+      <c r="AM147" t="inlineStr">
+        <is>
+          <t>Assimilation du produit avec sorties en famille</t>
         </is>
       </c>
     </row>
@@ -27152,6 +28142,11 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AP148" t="inlineStr">
+        <is>
+          <t>Tout type de cadeaux, incite à aller sur le site Web s'informer</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -27518,7 +28513,12 @@
       </c>
       <c r="AK150" t="inlineStr">
         <is>
-          <t>15,16,NA</t>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="AP150" t="inlineStr">
+        <is>
+          <t>Incite à aller sur le site web pour voir la recette</t>
         </is>
       </c>
     </row>
@@ -27845,29 +28845,34 @@
           <t>11</t>
         </is>
       </c>
-      <c r="AG152" t="inlineStr">
+      <c r="AH152" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AH152" t="inlineStr">
+      <c r="AI152" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AI152" t="inlineStr">
+      <c r="AJ152" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AJ152" t="inlineStr">
+      <c r="AK152" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AK152" t="inlineStr">
-        <is>
-          <t>NA</t>
+      <c r="AM152" t="inlineStr">
+        <is>
+          <t>Evénement de sensibilisation</t>
+        </is>
+      </c>
+      <c r="AN152" t="inlineStr">
+        <is>
+          <t>Wereld Prematurendag</t>
         </is>
       </c>
     </row>
@@ -28002,11 +29007,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="AG153" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="AH153" t="inlineStr">
         <is>
           <t>A</t>
@@ -28025,6 +29025,11 @@
       <c r="AK153" t="inlineStr">
         <is>
           <t>A</t>
+        </is>
+      </c>
+      <c r="AN153" t="inlineStr">
+        <is>
+          <t>Expertrol</t>
         </is>
       </c>
     </row>
@@ -28214,6 +29219,11 @@
           <t>5</t>
         </is>
       </c>
+      <c r="AO154" t="inlineStr">
+        <is>
+          <t>découverte</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -28588,6 +29598,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="AM156" t="inlineStr">
+        <is>
+          <t>Forme caractéristiques des chocolats Guylian</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -28775,6 +29790,16 @@
           <t>1</t>
         </is>
       </c>
+      <c r="AM157" t="inlineStr">
+        <is>
+          <t>Nouveauté et formes caractéristiques des chocolats Guylian</t>
+        </is>
+      </c>
+      <c r="AP157" t="inlineStr">
+        <is>
+          <t>Nouveauté</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -29109,29 +30134,29 @@
           <t>0</t>
         </is>
       </c>
-      <c r="AG159" t="inlineStr">
+      <c r="AH159" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AH159" t="inlineStr">
+      <c r="AI159" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AI159" t="inlineStr">
+      <c r="AJ159" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AJ159" t="inlineStr">
+      <c r="AK159" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AK159" t="inlineStr">
-        <is>
-          <t>NA</t>
+      <c r="AP159" t="inlineStr">
+        <is>
+          <t>Incitation a faire ses courses sur le site internet et réduction sur le première commande</t>
         </is>
       </c>
     </row>
@@ -29321,6 +30346,16 @@
           <t>12</t>
         </is>
       </c>
+      <c r="AN160" t="inlineStr">
+        <is>
+          <t>Recept</t>
+        </is>
+      </c>
+      <c r="AP160" t="inlineStr">
+        <is>
+          <t>Invite à se rendre sur le site internet pour voir la recette</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -29480,7 +30515,7 @@
       </c>
       <c r="AG161" t="inlineStr">
         <is>
-          <t>11,13,18</t>
+          <t>11, 13, 18</t>
         </is>
       </c>
       <c r="AH161" t="inlineStr">
@@ -29500,7 +30535,17 @@
       </c>
       <c r="AK161" t="inlineStr">
         <is>
-          <t>10,11,12,13,18,NA</t>
+          <t>11, 13, 18</t>
+        </is>
+      </c>
+      <c r="AM161" t="inlineStr">
+        <is>
+          <t>saison automnale</t>
+        </is>
+      </c>
+      <c r="AN161" t="inlineStr">
+        <is>
+          <t>Recept</t>
         </is>
       </c>
     </row>
@@ -29635,11 +30680,6 @@
           <t>9</t>
         </is>
       </c>
-      <c r="AG162" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="AH162" t="inlineStr">
         <is>
           <t>A</t>
@@ -29824,27 +30864,42 @@
       </c>
       <c r="AG163" t="inlineStr">
         <is>
+          <t>13, 8</t>
+        </is>
+      </c>
+      <c r="AH163" t="inlineStr">
+        <is>
+          <t>13,8</t>
+        </is>
+      </c>
+      <c r="AI163" t="inlineStr">
+        <is>
+          <t>11,13,8</t>
+        </is>
+      </c>
+      <c r="AJ163" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="AH163" t="inlineStr">
-        <is>
-          <t>13,8</t>
-        </is>
-      </c>
-      <c r="AI163" t="inlineStr">
-        <is>
-          <t>11,13,8</t>
-        </is>
-      </c>
-      <c r="AJ163" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
       <c r="AK163" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>13, 8</t>
+        </is>
+      </c>
+      <c r="AM163" t="inlineStr">
+        <is>
+          <t>Collaboration avec une blogueuse</t>
+        </is>
+      </c>
+      <c r="AN163" t="inlineStr">
+        <is>
+          <t>Recept</t>
+        </is>
+      </c>
+      <c r="AP163" t="inlineStr">
+        <is>
+          <t>Inviter à cliquer sur un lien pour avoir accès à la recette</t>
         </is>
       </c>
     </row>
@@ -30011,7 +31066,7 @@
       </c>
       <c r="AG164" t="inlineStr">
         <is>
-          <t>4.2,4.3</t>
+          <t>4.2, 4.3</t>
         </is>
       </c>
       <c r="AH164" t="inlineStr">
@@ -30031,7 +31086,12 @@
       </c>
       <c r="AK164" t="inlineStr">
         <is>
-          <t>4b,4c</t>
+          <t>4b, 4c</t>
+        </is>
+      </c>
+      <c r="AM164" t="inlineStr">
+        <is>
+          <t>Alternatives végétales proposées</t>
         </is>
       </c>
     </row>
@@ -30166,11 +31226,6 @@
           <t>0,1,11</t>
         </is>
       </c>
-      <c r="AG165" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="AH165" t="inlineStr">
         <is>
           <t>A</t>
@@ -30189,6 +31244,11 @@
       <c r="AK165" t="inlineStr">
         <is>
           <t>A</t>
+        </is>
+      </c>
+      <c r="AN165" t="inlineStr">
+        <is>
+          <t>666, connectie met bekende nummers</t>
         </is>
       </c>
     </row>
@@ -30378,6 +31438,16 @@
           <t>7</t>
         </is>
       </c>
+      <c r="AM166" t="inlineStr">
+        <is>
+          <t>Logo (sourire) caractéristique de la marque</t>
+        </is>
+      </c>
+      <c r="AP166" t="inlineStr">
+        <is>
+          <t>pack budget</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -30565,6 +31635,16 @@
           <t>1</t>
         </is>
       </c>
+      <c r="AM167" t="inlineStr">
+        <is>
+          <t>Partage d'anecdotes, monument connu afffiché</t>
+        </is>
+      </c>
+      <c r="AN167" t="inlineStr">
+        <is>
+          <t>Weetje</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -30752,6 +31832,11 @@
           <t>1,18,4b</t>
         </is>
       </c>
+      <c r="AP168" t="inlineStr">
+        <is>
+          <t>Nouveauté</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -30929,6 +32014,21 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AL169" t="inlineStr">
+        <is>
+          <t>récyclage</t>
+        </is>
+      </c>
+      <c r="AN169" t="inlineStr">
+        <is>
+          <t>DIY</t>
+        </is>
+      </c>
+      <c r="AP169" t="inlineStr">
+        <is>
+          <t>Invite à découvrir leurs idées de bricolage (sur leur site)</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -31073,7 +32173,7 @@
       </c>
       <c r="AC170" t="inlineStr">
         <is>
-          <t>1,11,3</t>
+          <t>1, 11</t>
         </is>
       </c>
       <c r="AD170" t="inlineStr">
@@ -31114,6 +32214,16 @@
       <c r="AK170" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+      <c r="AM170" t="inlineStr">
+        <is>
+          <t>Collaboration avec une émission télévisée</t>
+        </is>
+      </c>
+      <c r="AN170" t="inlineStr">
+        <is>
+          <t>TV</t>
         </is>
       </c>
     </row>
@@ -31280,7 +32390,7 @@
       </c>
       <c r="AG171" t="inlineStr">
         <is>
-          <t>2,4.1,9,99</t>
+          <t>9</t>
         </is>
       </c>
       <c r="AH171" t="inlineStr">
@@ -31300,7 +32410,12 @@
       </c>
       <c r="AK171" t="inlineStr">
         <is>
-          <t>2,4a,9,NA</t>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="AP171" t="inlineStr">
+        <is>
+          <t>Nouveauté : possibilité d'emporter</t>
         </is>
       </c>
     </row>
@@ -31467,27 +32582,37 @@
       </c>
       <c r="AG172" t="inlineStr">
         <is>
+          <t>12, 15</t>
+        </is>
+      </c>
+      <c r="AH172" t="inlineStr">
+        <is>
+          <t>12,15</t>
+        </is>
+      </c>
+      <c r="AI172" t="inlineStr">
+        <is>
+          <t>12,13,15</t>
+        </is>
+      </c>
+      <c r="AJ172" t="inlineStr">
+        <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AH172" t="inlineStr">
-        <is>
-          <t>12,15</t>
-        </is>
-      </c>
-      <c r="AI172" t="inlineStr">
-        <is>
-          <t>12,13,15</t>
-        </is>
-      </c>
-      <c r="AJ172" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
       <c r="AK172" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>12, 15</t>
+        </is>
+      </c>
+      <c r="AN172" t="inlineStr">
+        <is>
+          <t>Recept</t>
+        </is>
+      </c>
+      <c r="AP172" t="inlineStr">
+        <is>
+          <t>Invitation à aller sur leur site pour voir la recette</t>
         </is>
       </c>
     </row>
@@ -31634,12 +32759,7 @@
       </c>
       <c r="AC173" t="inlineStr">
         <is>
-          <t>1,10</t>
-        </is>
-      </c>
-      <c r="AG173" t="inlineStr">
-        <is>
-          <t>NA</t>
+          <t>1, 10</t>
         </is>
       </c>
       <c r="AH173" t="inlineStr">
@@ -31826,7 +32946,7 @@
       </c>
       <c r="AG174" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>11, 4.1</t>
         </is>
       </c>
       <c r="AH174" t="inlineStr">
@@ -31846,7 +32966,7 @@
       </c>
       <c r="AK174" t="inlineStr">
         <is>
-          <t>4a</t>
+          <t>11, 4a</t>
         </is>
       </c>
     </row>
@@ -32036,6 +33156,21 @@
           <t>1</t>
         </is>
       </c>
+      <c r="AM175" t="inlineStr">
+        <is>
+          <t>Collaboration avec Plopsa Indoor</t>
+        </is>
+      </c>
+      <c r="AP175" t="inlineStr">
+        <is>
+          <t>Offre des cadeaux à un événement</t>
+        </is>
+      </c>
+      <c r="AQ175" t="inlineStr">
+        <is>
+          <t>Traktatie</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -32223,6 +33358,21 @@
           <t>4b</t>
         </is>
       </c>
+      <c r="AO176" t="inlineStr">
+        <is>
+          <t>25% moins chère pour un même produit</t>
+        </is>
+      </c>
+      <c r="AP176" t="inlineStr">
+        <is>
+          <t>Explique que c'est moins chère et plus facile que d'autres marques</t>
+        </is>
+      </c>
+      <c r="AQ176" t="inlineStr">
+        <is>
+          <t>Productvergelijking die aangeeft dat zij goedkoper zijn</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -32387,7 +33537,7 @@
       </c>
       <c r="AG177" t="inlineStr">
         <is>
-          <t>10,11,15,16,18,3</t>
+          <t>10, 11, 15</t>
         </is>
       </c>
       <c r="AH177" t="inlineStr">
@@ -32407,7 +33557,17 @@
       </c>
       <c r="AK177" t="inlineStr">
         <is>
-          <t>10,11,15,16,18,3</t>
+          <t>10, 11, 15</t>
+        </is>
+      </c>
+      <c r="AN177" t="inlineStr">
+        <is>
+          <t>Recept</t>
+        </is>
+      </c>
+      <c r="AP177" t="inlineStr">
+        <is>
+          <t>Incite à (aller sur leur site) pour voir la recette</t>
         </is>
       </c>
     </row>
@@ -32597,6 +33757,11 @@
           <t>9</t>
         </is>
       </c>
+      <c r="AM178" t="inlineStr">
+        <is>
+          <t>saison estivale</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -32744,29 +33909,29 @@
           <t>0</t>
         </is>
       </c>
-      <c r="AG179" t="inlineStr">
+      <c r="AH179" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AH179" t="inlineStr">
+      <c r="AI179" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AI179" t="inlineStr">
+      <c r="AJ179" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AJ179" t="inlineStr">
+      <c r="AK179" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AK179" t="inlineStr">
-        <is>
-          <t>NA</t>
+      <c r="AM179" t="inlineStr">
+        <is>
+          <t>Allusion aux courses (racing)</t>
         </is>
       </c>
     </row>
@@ -33133,6 +34298,11 @@
           <t>4e</t>
         </is>
       </c>
+      <c r="AM181" t="inlineStr">
+        <is>
+          <t>Allusion au jardinage</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -33320,6 +34490,16 @@
           <t>9</t>
         </is>
       </c>
+      <c r="AM182" t="inlineStr">
+        <is>
+          <t>Collaboration avec un restaurant</t>
+        </is>
+      </c>
+      <c r="AP182" t="inlineStr">
+        <is>
+          <t>Incitation a commander sur le site web Take Away</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -33502,6 +34682,16 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AM183" t="inlineStr">
+        <is>
+          <t>Collaboration avec un hote</t>
+        </is>
+      </c>
+      <c r="AP183" t="inlineStr">
+        <is>
+          <t>Inviter a participer sur leur site web</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -33679,6 +34869,11 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AN184" t="inlineStr">
+        <is>
+          <t>Beroemde popgroep</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -33843,7 +35038,7 @@
       </c>
       <c r="AG185" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>15, 4.1</t>
         </is>
       </c>
       <c r="AH185" t="inlineStr">
@@ -33863,7 +35058,7 @@
       </c>
       <c r="AK185" t="inlineStr">
         <is>
-          <t>4a</t>
+          <t>15, 4a</t>
         </is>
       </c>
     </row>
@@ -33990,7 +35185,7 @@
       </c>
       <c r="Y186" t="inlineStr">
         <is>
-          <t>10,2,5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Z186" t="inlineStr">
@@ -34051,6 +35246,16 @@
       <c r="AK186" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+      <c r="AN186" t="inlineStr">
+        <is>
+          <t>Ontwerp jouw eigen..</t>
+        </is>
+      </c>
+      <c r="AP186" t="inlineStr">
+        <is>
+          <t>Possibilité de personnaliser son produit</t>
         </is>
       </c>
     </row>
@@ -34177,7 +35382,7 @@
       </c>
       <c r="Y187" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1, 3</t>
         </is>
       </c>
       <c r="Z187" t="inlineStr">
@@ -34233,6 +35438,16 @@
       <c r="AK187" t="inlineStr">
         <is>
           <t>9</t>
+        </is>
+      </c>
+      <c r="AM187" t="inlineStr">
+        <is>
+          <t>Collaboration avec un restaurant</t>
+        </is>
+      </c>
+      <c r="AP187" t="inlineStr">
+        <is>
+          <t>Incite a commander sur le site web</t>
         </is>
       </c>
     </row>
@@ -34604,6 +35819,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="AN189" t="inlineStr">
+        <is>
+          <t>World Food day</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -34791,6 +36011,11 @@
           <t>1,18,NA</t>
         </is>
       </c>
+      <c r="AP190" t="inlineStr">
+        <is>
+          <t>Nouveauté</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -35122,7 +36347,7 @@
       </c>
       <c r="AC192" t="inlineStr">
         <is>
-          <t>0,1,11,9</t>
+          <t>11</t>
         </is>
       </c>
       <c r="AD192" t="inlineStr">
@@ -35163,6 +36388,16 @@
       <c r="AK192" t="inlineStr">
         <is>
           <t>5</t>
+        </is>
+      </c>
+      <c r="AM192" t="inlineStr">
+        <is>
+          <t>Collaboration avec une autre marque</t>
+        </is>
+      </c>
+      <c r="AN192" t="inlineStr">
+        <is>
+          <t>Pi-dag</t>
         </is>
       </c>
     </row>
@@ -35289,7 +36524,7 @@
       </c>
       <c r="Y193" t="inlineStr">
         <is>
-          <t>2,5,7</t>
+          <t>7</t>
         </is>
       </c>
       <c r="Z193" t="inlineStr">
@@ -35309,7 +36544,7 @@
       </c>
       <c r="AC193" t="inlineStr">
         <is>
-          <t>10,5</t>
+          <t>10, 5</t>
         </is>
       </c>
       <c r="AD193" t="inlineStr">
@@ -35516,27 +36751,37 @@
       </c>
       <c r="AG194" t="inlineStr">
         <is>
+          <t>12, 15</t>
+        </is>
+      </c>
+      <c r="AH194" t="inlineStr">
+        <is>
+          <t>12,15</t>
+        </is>
+      </c>
+      <c r="AI194" t="inlineStr">
+        <is>
+          <t>12,15,7</t>
+        </is>
+      </c>
+      <c r="AJ194" t="inlineStr">
+        <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AH194" t="inlineStr">
-        <is>
-          <t>12,15</t>
-        </is>
-      </c>
-      <c r="AI194" t="inlineStr">
-        <is>
-          <t>12,15,7</t>
-        </is>
-      </c>
-      <c r="AJ194" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
       <c r="AK194" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>12, 15</t>
+        </is>
+      </c>
+      <c r="AM194" t="inlineStr">
+        <is>
+          <t>Saison automnale et mise en avant du brocoli</t>
+        </is>
+      </c>
+      <c r="AN194" t="inlineStr">
+        <is>
+          <t>Recept</t>
         </is>
       </c>
     </row>
@@ -35663,7 +36908,7 @@
       </c>
       <c r="Y195" t="inlineStr">
         <is>
-          <t>1,10,2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Z195" t="inlineStr">
@@ -35714,6 +36959,11 @@
       <c r="AK195" t="inlineStr">
         <is>
           <t>NA</t>
+        </is>
+      </c>
+      <c r="AO195" t="inlineStr">
+        <is>
+          <t>Jeu</t>
         </is>
       </c>
     </row>
@@ -35860,7 +37110,7 @@
       </c>
       <c r="AC196" t="inlineStr">
         <is>
-          <t>0,11,9</t>
+          <t>11</t>
         </is>
       </c>
       <c r="AD196" t="inlineStr">
@@ -35896,6 +37146,21 @@
       <c r="AK196" t="inlineStr">
         <is>
           <t>NA</t>
+        </is>
+      </c>
+      <c r="AM196" t="inlineStr">
+        <is>
+          <t>Mise en avant du régime végétarien</t>
+        </is>
+      </c>
+      <c r="AN196" t="inlineStr">
+        <is>
+          <t>Receptenmenu Week zonder Vlees</t>
+        </is>
+      </c>
+      <c r="AP196" t="inlineStr">
+        <is>
+          <t>Invite à consulter le site web pour des recettes</t>
         </is>
       </c>
     </row>
@@ -36267,6 +37532,26 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AL198" t="inlineStr">
+        <is>
+          <t>Recherche d'emploie</t>
+        </is>
+      </c>
+      <c r="AM198" t="inlineStr">
+        <is>
+          <t>Motifs caractéristiques de la marque</t>
+        </is>
+      </c>
+      <c r="AO198" t="inlineStr">
+        <is>
+          <t>recherche d'emploie</t>
+        </is>
+      </c>
+      <c r="AP198" t="inlineStr">
+        <is>
+          <t>Offre d'emploi</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -36454,6 +37739,21 @@
           <t>8</t>
         </is>
       </c>
+      <c r="AO199" t="inlineStr">
+        <is>
+          <t>Livraison gratuite</t>
+        </is>
+      </c>
+      <c r="AP199" t="inlineStr">
+        <is>
+          <t>Mise en avant des budgets packs et livraison offerte</t>
+        </is>
+      </c>
+      <c r="AQ199" t="inlineStr">
+        <is>
+          <t>Gratis levering</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -36641,6 +37941,21 @@
           <t>9</t>
         </is>
       </c>
+      <c r="AM200" t="inlineStr">
+        <is>
+          <t>Logo caractériqtique de la marque</t>
+        </is>
+      </c>
+      <c r="AP200" t="inlineStr">
+        <is>
+          <t>Prix spéciaux pour menu les jeudis</t>
+        </is>
+      </c>
+      <c r="AQ200" t="inlineStr">
+        <is>
+          <t>All-in voor bepaalde prijs</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -37015,6 +38330,21 @@
           <t>14</t>
         </is>
       </c>
+      <c r="AM202" t="inlineStr">
+        <is>
+          <t>Mise en avant du "bon" nutriscore</t>
+        </is>
+      </c>
+      <c r="AO202" t="inlineStr">
+        <is>
+          <t>Présentation d'un nouveau produit</t>
+        </is>
+      </c>
+      <c r="AP202" t="inlineStr">
+        <is>
+          <t>Nouveauté</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -37389,6 +38719,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="AM204" t="inlineStr">
+        <is>
+          <t>Placement d'une autre marque (Nûby)</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -37556,6 +38891,16 @@
           <t>A</t>
         </is>
       </c>
+      <c r="AM205" t="inlineStr">
+        <is>
+          <t>saison automnale</t>
+        </is>
+      </c>
+      <c r="AN205" t="inlineStr">
+        <is>
+          <t>Klant voorkeur laten doorgeven</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -37885,29 +39230,44 @@
           <t>11</t>
         </is>
       </c>
-      <c r="AG207" t="inlineStr">
+      <c r="AH207" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AI207" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AH207" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="AI207" t="inlineStr">
+      <c r="AJ207" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AJ207" t="inlineStr">
+      <c r="AK207" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AK207" t="inlineStr">
-        <is>
-          <t>NA</t>
+      <c r="AL207" t="inlineStr">
+        <is>
+          <t>Recyclage</t>
+        </is>
+      </c>
+      <c r="AM207" t="inlineStr">
+        <is>
+          <t>mise en avant du recyclage et de la durabilité</t>
+        </is>
+      </c>
+      <c r="AN207" t="inlineStr">
+        <is>
+          <t>DIY</t>
+        </is>
+      </c>
+      <c r="AP207" t="inlineStr">
+        <is>
+          <t>Invite à aller sur leur site pour découvrir des idées de bricolages</t>
         </is>
       </c>
     </row>
@@ -38087,6 +39447,16 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AM208" t="inlineStr">
+        <is>
+          <t>présence de leur logo caractéristique</t>
+        </is>
+      </c>
+      <c r="AP208" t="inlineStr">
+        <is>
+          <t>Offre d'emploi, invite à se rendre sur leur site web pour plus d'informations</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -38274,6 +39644,11 @@
           <t>16</t>
         </is>
       </c>
+      <c r="AN209" t="inlineStr">
+        <is>
+          <t>Slogan</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -38418,7 +39793,7 @@
       </c>
       <c r="AC210" t="inlineStr">
         <is>
-          <t>1,11,2,3,9</t>
+          <t>11, 9</t>
         </is>
       </c>
       <c r="AE210" t="inlineStr">
@@ -38449,6 +39824,26 @@
       <c r="AK210" t="inlineStr">
         <is>
           <t>NA</t>
+        </is>
+      </c>
+      <c r="AM210" t="inlineStr">
+        <is>
+          <t>Brève explications des origines, utilisation de l'IA</t>
+        </is>
+      </c>
+      <c r="AN210" t="inlineStr">
+        <is>
+          <t>Immerse verhaal</t>
+        </is>
+      </c>
+      <c r="AO210" t="inlineStr">
+        <is>
+          <t>site web</t>
+        </is>
+      </c>
+      <c r="AP210" t="inlineStr">
+        <is>
+          <t>Invite à se rendre sur leur site Web pour plus d'informations</t>
         </is>
       </c>
     </row>
@@ -38628,6 +40023,16 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AL211" t="inlineStr">
+        <is>
+          <t>chaussure personnalisé</t>
+        </is>
+      </c>
+      <c r="AM211" t="inlineStr">
+        <is>
+          <t>Logo caractéristique, collaboration avec une marque de chaussures connue</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -38815,6 +40220,11 @@
           <t>9</t>
         </is>
       </c>
+      <c r="AP212" t="inlineStr">
+        <is>
+          <t>Invite à voter pour son restaurant favori</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -38939,7 +40349,7 @@
       </c>
       <c r="Y213" t="inlineStr">
         <is>
-          <t>0,10,5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="Z213" t="inlineStr">
@@ -38995,6 +40405,21 @@
       <c r="AK213" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+      <c r="AN213" t="inlineStr">
+        <is>
+          <t>Gepersonaliseerd doosje en einde van het schooljaar</t>
+        </is>
+      </c>
+      <c r="AO213" t="inlineStr">
+        <is>
+          <t>site web</t>
+        </is>
+      </c>
+      <c r="AP213" t="inlineStr">
+        <is>
+          <t>Possibilité de personnaliser son produit</t>
         </is>
       </c>
     </row>
@@ -39184,6 +40609,11 @@
           <t>16</t>
         </is>
       </c>
+      <c r="AM214" t="inlineStr">
+        <is>
+          <t>Mise en avant du local</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -39371,6 +40801,11 @@
           <t>16</t>
         </is>
       </c>
+      <c r="AM215" t="inlineStr">
+        <is>
+          <t>collaboration entre Delhaize et Nestlé</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -39515,7 +40950,7 @@
       </c>
       <c r="AC216" t="inlineStr">
         <is>
-          <t>0,1,11</t>
+          <t>11</t>
         </is>
       </c>
       <c r="AD216" t="inlineStr">
@@ -39535,19 +40970,19 @@
       </c>
       <c r="AG216" t="inlineStr">
         <is>
+          <t>12, 8</t>
+        </is>
+      </c>
+      <c r="AH216" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AI216" t="inlineStr">
+        <is>
           <t>12,14,15,8</t>
         </is>
       </c>
-      <c r="AH216" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="AI216" t="inlineStr">
-        <is>
-          <t>12,14,15,8</t>
-        </is>
-      </c>
       <c r="AJ216" t="inlineStr">
         <is>
           <t>12</t>
@@ -39555,7 +40990,22 @@
       </c>
       <c r="AK216" t="inlineStr">
         <is>
-          <t>12,14,15,8</t>
+          <t>12, 8</t>
+        </is>
+      </c>
+      <c r="AM216" t="inlineStr">
+        <is>
+          <t>Collaboration avec ELLE</t>
+        </is>
+      </c>
+      <c r="AN216" t="inlineStr">
+        <is>
+          <t>Recept</t>
+        </is>
+      </c>
+      <c r="AP216" t="inlineStr">
+        <is>
+          <t>Incite à se rendre sur leur site web pour la recette</t>
         </is>
       </c>
     </row>
@@ -39745,6 +41195,11 @@
           <t>3</t>
         </is>
       </c>
+      <c r="AM217" t="inlineStr">
+        <is>
+          <t>Mise en avant de la qualité et durabilité du produit</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -39889,7 +41344,7 @@
       </c>
       <c r="AC218" t="inlineStr">
         <is>
-          <t>1,11,3</t>
+          <t>1, 3</t>
         </is>
       </c>
       <c r="AD218" t="inlineStr">
@@ -39930,6 +41385,16 @@
       <c r="AK218" t="inlineStr">
         <is>
           <t>16,4a,4e</t>
+        </is>
+      </c>
+      <c r="AM218" t="inlineStr">
+        <is>
+          <t>Collaboration avec Delhaize</t>
+        </is>
+      </c>
+      <c r="AP218" t="inlineStr">
+        <is>
+          <t>Packaging exclusifs à découvrir</t>
         </is>
       </c>
     </row>
@@ -40076,7 +41541,7 @@
       </c>
       <c r="AC219" t="inlineStr">
         <is>
-          <t>1,11,3</t>
+          <t>1, 3</t>
         </is>
       </c>
       <c r="AE219" t="inlineStr">
@@ -40107,6 +41572,16 @@
       <c r="AK219" t="inlineStr">
         <is>
           <t>NA</t>
+        </is>
+      </c>
+      <c r="AM219" t="inlineStr">
+        <is>
+          <t>Collaboration avec delhaize</t>
+        </is>
+      </c>
+      <c r="AP219" t="inlineStr">
+        <is>
+          <t>Packaging exclusif à découvrir</t>
         </is>
       </c>
     </row>
@@ -40253,7 +41728,7 @@
       </c>
       <c r="AC220" t="inlineStr">
         <is>
-          <t>1,11,3</t>
+          <t>1, 3</t>
         </is>
       </c>
       <c r="AE220" t="inlineStr">
@@ -40284,6 +41759,16 @@
       <c r="AK220" t="inlineStr">
         <is>
           <t>NA</t>
+        </is>
+      </c>
+      <c r="AM220" t="inlineStr">
+        <is>
+          <t>collaboration avec delhaize</t>
+        </is>
+      </c>
+      <c r="AP220" t="inlineStr">
+        <is>
+          <t>packagings à découvrir</t>
         </is>
       </c>
     </row>
@@ -40433,29 +41918,29 @@
           <t>0</t>
         </is>
       </c>
-      <c r="AG221" t="inlineStr">
+      <c r="AH221" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AH221" t="inlineStr">
+      <c r="AI221" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AI221" t="inlineStr">
+      <c r="AJ221" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AJ221" t="inlineStr">
+      <c r="AK221" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AK221" t="inlineStr">
-        <is>
-          <t>NA</t>
+      <c r="AP221" t="inlineStr">
+        <is>
+          <t>Invite à se rendre sur un site pour plus d'informations</t>
         </is>
       </c>
     </row>
@@ -40976,7 +42461,7 @@
       </c>
       <c r="AC224" t="inlineStr">
         <is>
-          <t>1,11,2,3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AD224" t="inlineStr">
@@ -41017,6 +42502,11 @@
       <c r="AK224" t="inlineStr">
         <is>
           <t>14</t>
+        </is>
+      </c>
+      <c r="AM224" t="inlineStr">
+        <is>
+          <t>Assimiler aux sorties en famille</t>
         </is>
       </c>
     </row>
@@ -41206,6 +42696,11 @@
           <t>14</t>
         </is>
       </c>
+      <c r="AM225" t="inlineStr">
+        <is>
+          <t>assimilé aux sorties dehors</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -41383,6 +42878,16 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AN226" t="inlineStr">
+        <is>
+          <t>DIY</t>
+        </is>
+      </c>
+      <c r="AP226" t="inlineStr">
+        <is>
+          <t>idée de bricolage offerte</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -41547,7 +43052,7 @@
       </c>
       <c r="AG227" t="inlineStr">
         <is>
-          <t>15,4.3,6,7,99</t>
+          <t>4.3, 7</t>
         </is>
       </c>
       <c r="AH227" t="inlineStr">
@@ -41567,7 +43072,17 @@
       </c>
       <c r="AK227" t="inlineStr">
         <is>
-          <t>15,4c,6,7,NA</t>
+          <t>4c, 7</t>
+        </is>
+      </c>
+      <c r="AM227" t="inlineStr">
+        <is>
+          <t>assimilé au petit déjeuner</t>
+        </is>
+      </c>
+      <c r="AN227" t="inlineStr">
+        <is>
+          <t>Proteïnerijk</t>
         </is>
       </c>
     </row>
@@ -42131,6 +43646,16 @@
           <t>16</t>
         </is>
       </c>
+      <c r="AM230" t="inlineStr">
+        <is>
+          <t>Idées données pour lutter contre le gaspillage alimentaire</t>
+        </is>
+      </c>
+      <c r="AN230" t="inlineStr">
+        <is>
+          <t>Tip</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -42318,6 +43843,16 @@
           <t>8</t>
         </is>
       </c>
+      <c r="AM231" t="inlineStr">
+        <is>
+          <t>collaboration avec un blog culinaire</t>
+        </is>
+      </c>
+      <c r="AN231" t="inlineStr">
+        <is>
+          <t>Recept</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -42505,6 +44040,11 @@
           <t>16</t>
         </is>
       </c>
+      <c r="AP232" t="inlineStr">
+        <is>
+          <t>uniquement sur le e-shop</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -42692,6 +44232,11 @@
           <t>4a</t>
         </is>
       </c>
+      <c r="AM233" t="inlineStr">
+        <is>
+          <t>assimilé au petit déjeuner</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -42874,6 +44419,16 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AN234" t="inlineStr">
+        <is>
+          <t>Recept</t>
+        </is>
+      </c>
+      <c r="AP234" t="inlineStr">
+        <is>
+          <t>offre une idée de recette</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -43061,6 +44616,11 @@
           <t>14</t>
         </is>
       </c>
+      <c r="AM235" t="inlineStr">
+        <is>
+          <t>assimilé au lunch (du lundi)</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -43240,7 +44800,12 @@
       </c>
       <c r="AK236" t="inlineStr">
         <is>
-          <t>16,9,NA</t>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="AM236" t="inlineStr">
+        <is>
+          <t>logo caractéristique</t>
         </is>
       </c>
     </row>
@@ -43390,29 +44955,34 @@
           <t>0</t>
         </is>
       </c>
-      <c r="AG237" t="inlineStr">
+      <c r="AH237" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AH237" t="inlineStr">
+      <c r="AI237" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AI237" t="inlineStr">
+      <c r="AJ237" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AJ237" t="inlineStr">
+      <c r="AK237" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AK237" t="inlineStr">
-        <is>
-          <t>NA</t>
+      <c r="AO237" t="inlineStr">
+        <is>
+          <t>site web</t>
+        </is>
+      </c>
+      <c r="AP237" t="inlineStr">
+        <is>
+          <t>offre de travail</t>
         </is>
       </c>
     </row>
@@ -43592,6 +45162,21 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AM238" t="inlineStr">
+        <is>
+          <t>saison automnale</t>
+        </is>
+      </c>
+      <c r="AN238" t="inlineStr">
+        <is>
+          <t>DIY</t>
+        </is>
+      </c>
+      <c r="AP238" t="inlineStr">
+        <is>
+          <t>idée de bricolage proposée</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -43736,7 +45321,7 @@
       </c>
       <c r="AC239" t="inlineStr">
         <is>
-          <t>0,1,11</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AD239" t="inlineStr">
@@ -43777,6 +45362,11 @@
       <c r="AK239" t="inlineStr">
         <is>
           <t>5</t>
+        </is>
+      </c>
+      <c r="AM239" t="inlineStr">
+        <is>
+          <t>mise en avant des options véganes</t>
         </is>
       </c>
     </row>
@@ -43966,6 +45556,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="AM240" t="inlineStr">
+        <is>
+          <t>mis en avant comme l'en-cas idéal</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -44075,7 +45670,7 @@
       </c>
       <c r="Y241" t="inlineStr">
         <is>
-          <t>3,4,5,8,9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="Z241" t="inlineStr">
@@ -44095,12 +45690,7 @@
       </c>
       <c r="AC241" t="inlineStr">
         <is>
-          <t>10,5</t>
-        </is>
-      </c>
-      <c r="AG241" t="inlineStr">
-        <is>
-          <t>NA</t>
+          <t>10, 5</t>
         </is>
       </c>
       <c r="AH241" t="inlineStr">
@@ -44310,6 +45900,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="AO242" t="inlineStr">
+        <is>
+          <t>site web</t>
+        </is>
+      </c>
+      <c r="AP242" t="inlineStr">
+        <is>
+          <t>Invite à se rendre sur leur site webpour découvir le produit</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -44641,7 +46241,7 @@
       </c>
       <c r="AC244" t="inlineStr">
         <is>
-          <t>11,7</t>
+          <t>11, 7</t>
         </is>
       </c>
       <c r="AD244" t="inlineStr">
@@ -44682,6 +46282,16 @@
       <c r="AK244" t="inlineStr">
         <is>
           <t>8</t>
+        </is>
+      </c>
+      <c r="AM244" t="inlineStr">
+        <is>
+          <t>collaboration avec une émission de TV</t>
+        </is>
+      </c>
+      <c r="AN244" t="inlineStr">
+        <is>
+          <t>TV-programma</t>
         </is>
       </c>
     </row>
@@ -44871,6 +46481,11 @@
           <t>14</t>
         </is>
       </c>
+      <c r="AM245" t="inlineStr">
+        <is>
+          <t>assimiler avec les sorties dehors</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -45058,6 +46673,16 @@
           <t>9</t>
         </is>
       </c>
+      <c r="AM246" t="inlineStr">
+        <is>
+          <t>collaboration avec un restaurant</t>
+        </is>
+      </c>
+      <c r="AP246" t="inlineStr">
+        <is>
+          <t>invite à commander sur le site web pour recevoir l'offre</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -45202,7 +46827,7 @@
       </c>
       <c r="AC247" t="inlineStr">
         <is>
-          <t>0,11,3,9</t>
+          <t>9</t>
         </is>
       </c>
       <c r="AD247" t="inlineStr">
@@ -45243,6 +46868,16 @@
       <c r="AK247" t="inlineStr">
         <is>
           <t>5</t>
+        </is>
+      </c>
+      <c r="AM247" t="inlineStr">
+        <is>
+          <t>collaboration avec d'autres marques</t>
+        </is>
+      </c>
+      <c r="AP247" t="inlineStr">
+        <is>
+          <t>nouveautés et formats plus grands</t>
         </is>
       </c>
     </row>
@@ -45576,7 +47211,7 @@
       </c>
       <c r="AC249" t="inlineStr">
         <is>
-          <t>0,11,7</t>
+          <t>11</t>
         </is>
       </c>
       <c r="AD249" t="inlineStr">
@@ -45596,7 +47231,7 @@
       </c>
       <c r="AG249" t="inlineStr">
         <is>
-          <t>15,16,8,99</t>
+          <t>16</t>
         </is>
       </c>
       <c r="AH249" t="inlineStr">
@@ -45616,7 +47251,17 @@
       </c>
       <c r="AK249" t="inlineStr">
         <is>
-          <t>15,16,8,NA</t>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="AM249" t="inlineStr">
+        <is>
+          <t>proposition d'alternatives plus "santés"</t>
+        </is>
+      </c>
+      <c r="AN249" t="inlineStr">
+        <is>
+          <t>Recept</t>
         </is>
       </c>
     </row>
@@ -45925,7 +47570,7 @@
       </c>
       <c r="Y251" t="inlineStr">
         <is>
-          <t>1,10,2,5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Z251" t="inlineStr">
@@ -45945,7 +47590,7 @@
       </c>
       <c r="AC251" t="inlineStr">
         <is>
-          <t>0,1,11</t>
+          <t>11</t>
         </is>
       </c>
       <c r="AD251" t="inlineStr">
@@ -45986,6 +47631,21 @@
       <c r="AK251" t="inlineStr">
         <is>
           <t>12</t>
+        </is>
+      </c>
+      <c r="AM251" t="inlineStr">
+        <is>
+          <t>mise en avant de septebre et de l'épautre</t>
+        </is>
+      </c>
+      <c r="AN251" t="inlineStr">
+        <is>
+          <t>Speltember</t>
+        </is>
+      </c>
+      <c r="AP251" t="inlineStr">
+        <is>
+          <t>invitation à consulter eur site web pour participer au concours</t>
         </is>
       </c>
     </row>
@@ -46165,6 +47825,16 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AM252" t="inlineStr">
+        <is>
+          <t>mise en garde des pubs trompeuses</t>
+        </is>
+      </c>
+      <c r="AQ252" t="inlineStr">
+        <is>
+          <t>Gratis</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -46347,6 +48017,11 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AM253" t="inlineStr">
+        <is>
+          <t>associé à l'apéro (du vendredi)</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -46534,6 +48209,21 @@
           <t>14</t>
         </is>
       </c>
+      <c r="AM254" t="inlineStr">
+        <is>
+          <t>mise en avant du nutriscore "amélioré"</t>
+        </is>
+      </c>
+      <c r="AN254" t="inlineStr">
+        <is>
+          <t>Nutriscore A in de verf zetten</t>
+        </is>
+      </c>
+      <c r="AP254" t="inlineStr">
+        <is>
+          <t>nouveauté</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -46678,7 +48368,7 @@
       </c>
       <c r="AC255" t="inlineStr">
         <is>
-          <t>0,11,9</t>
+          <t>11</t>
         </is>
       </c>
       <c r="AD255" t="inlineStr">
@@ -46719,6 +48409,16 @@
       <c r="AK255" t="inlineStr">
         <is>
           <t>5</t>
+        </is>
+      </c>
+      <c r="AM255" t="inlineStr">
+        <is>
+          <t>collaboration avec une autre marque alimentaire</t>
+        </is>
+      </c>
+      <c r="AN255" t="inlineStr">
+        <is>
+          <t>Wereld Knuffeldag</t>
         </is>
       </c>
     </row>
@@ -46900,7 +48600,22 @@
       </c>
       <c r="AK256" t="inlineStr">
         <is>
-          <t>10,11,NA</t>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="AM256" t="inlineStr">
+        <is>
+          <t>associé au week end</t>
+        </is>
+      </c>
+      <c r="AN256" t="inlineStr">
+        <is>
+          <t>Recept</t>
+        </is>
+      </c>
+      <c r="AP256" t="inlineStr">
+        <is>
+          <t>incite à aller sur leur site pour des idées de recettes</t>
         </is>
       </c>
     </row>
@@ -47085,6 +48800,16 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AM257" t="inlineStr">
+        <is>
+          <t>recette innovante</t>
+        </is>
+      </c>
+      <c r="AN257" t="inlineStr">
+        <is>
+          <t>Recept</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -47272,6 +48997,11 @@
           <t>5</t>
         </is>
       </c>
+      <c r="AP258" t="inlineStr">
+        <is>
+          <t>nouveautés</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -47591,11 +49321,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="AG260" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="AH260" t="inlineStr">
         <is>
           <t>A</t>
@@ -47614,6 +49339,11 @@
       <c r="AK260" t="inlineStr">
         <is>
           <t>A</t>
+        </is>
+      </c>
+      <c r="AM260" t="inlineStr">
+        <is>
+          <t>fin des vacances</t>
         </is>
       </c>
     </row>
@@ -47798,6 +49528,11 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AM261" t="inlineStr">
+        <is>
+          <t>associé au matin (petit déjeuner)</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -47980,6 +49715,16 @@
           <t>12,13,14,15,18,NA</t>
         </is>
       </c>
+      <c r="AO262" t="inlineStr">
+        <is>
+          <t>site web</t>
+        </is>
+      </c>
+      <c r="AP262" t="inlineStr">
+        <is>
+          <t>invite à aller sur le site web pour découvrir la recette</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -48157,6 +49902,11 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AM263" t="inlineStr">
+        <is>
+          <t>Jeu en lien avec des répliques de films connus</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -48334,6 +50084,21 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AM264" t="inlineStr">
+        <is>
+          <t>mise en avant de leurs actions pour l'environnement</t>
+        </is>
+      </c>
+      <c r="AN264" t="inlineStr">
+        <is>
+          <t>Zero waste programma</t>
+        </is>
+      </c>
+      <c r="AP264" t="inlineStr">
+        <is>
+          <t>incite à aller sur leur site web pour plus d'infos</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -48521,6 +50286,11 @@
           <t>14</t>
         </is>
       </c>
+      <c r="AM265" t="inlineStr">
+        <is>
+          <t>associé aux sorties dehors</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -48708,6 +50478,16 @@
           <t>15</t>
         </is>
       </c>
+      <c r="AN266" t="inlineStr">
+        <is>
+          <t>Recept en in de kijker zetten van de voordelen van de groente</t>
+        </is>
+      </c>
+      <c r="AP266" t="inlineStr">
+        <is>
+          <t>invite à se rendre pour leur site pour plus d'informations et de recettes</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -48895,6 +50675,16 @@
           <t>10</t>
         </is>
       </c>
+      <c r="AM267" t="inlineStr">
+        <is>
+          <t>propose une idée de recette</t>
+        </is>
+      </c>
+      <c r="AN267" t="inlineStr">
+        <is>
+          <t>Recept</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -49082,6 +50872,11 @@
           <t>5</t>
         </is>
       </c>
+      <c r="AM268" t="inlineStr">
+        <is>
+          <t>collaboration avec Kinder Bueno</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -49264,6 +51059,16 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AM269" t="inlineStr">
+        <is>
+          <t>mentionne la localisation de Gand</t>
+        </is>
+      </c>
+      <c r="AP269" t="inlineStr">
+        <is>
+          <t>invite à commander sur leur site avec des frais de livraisons peu élevés</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -49451,6 +51256,11 @@
           <t>4a</t>
         </is>
       </c>
+      <c r="AM270" t="inlineStr">
+        <is>
+          <t>associé au petit déjeuner</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -49777,7 +51587,7 @@
       </c>
       <c r="AC272" t="inlineStr">
         <is>
-          <t>11,9</t>
+          <t>11, 9</t>
         </is>
       </c>
       <c r="AE272" t="inlineStr">
@@ -49812,7 +51622,17 @@
       </c>
       <c r="AK272" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>1, A</t>
+        </is>
+      </c>
+      <c r="AM272" t="inlineStr">
+        <is>
+          <t>saison hivernale</t>
+        </is>
+      </c>
+      <c r="AN272" t="inlineStr">
+        <is>
+          <t>Recept</t>
         </is>
       </c>
     </row>
@@ -50002,6 +51822,11 @@
           <t>14</t>
         </is>
       </c>
+      <c r="AM273" t="inlineStr">
+        <is>
+          <t>collaboration avec @elle_and_rapha, associé aux sorties dehors</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -50146,7 +51971,7 @@
       </c>
       <c r="AC274" t="inlineStr">
         <is>
-          <t>1,11,2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AD274" t="inlineStr">
@@ -50187,6 +52012,16 @@
       <c r="AK274" t="inlineStr">
         <is>
           <t>1,18,NA</t>
+        </is>
+      </c>
+      <c r="AM274" t="inlineStr">
+        <is>
+          <t>collaboration avec delhaize</t>
+        </is>
+      </c>
+      <c r="AP274" t="inlineStr">
+        <is>
+          <t>nouveauté</t>
         </is>
       </c>
     </row>
@@ -50313,7 +52148,7 @@
       </c>
       <c r="Y275" t="inlineStr">
         <is>
-          <t>2,5</t>
+          <t>2, 5</t>
         </is>
       </c>
       <c r="Z275" t="inlineStr">
@@ -50520,7 +52355,7 @@
       </c>
       <c r="AC276" t="inlineStr">
         <is>
-          <t>0,1,11</t>
+          <t>11</t>
         </is>
       </c>
       <c r="AD276" t="inlineStr">
@@ -50561,6 +52396,21 @@
       <c r="AK276" t="inlineStr">
         <is>
           <t>5</t>
+        </is>
+      </c>
+      <c r="AM276" t="inlineStr">
+        <is>
+          <t>collaboration avec Radio 2</t>
+        </is>
+      </c>
+      <c r="AN276" t="inlineStr">
+        <is>
+          <t>Radio</t>
+        </is>
+      </c>
+      <c r="AP276" t="inlineStr">
+        <is>
+          <t>nouveauté</t>
         </is>
       </c>
     </row>
@@ -50745,6 +52595,16 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AM277" t="inlineStr">
+        <is>
+          <t>collaboration avec un restaurant d'Anvers</t>
+        </is>
+      </c>
+      <c r="AP277" t="inlineStr">
+        <is>
+          <t>incite à commander en ligne pour bénéficier de la ristourne</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -50927,6 +52787,11 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AM278" t="inlineStr">
+        <is>
+          <t>mention de la rentrée de septembre</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -51271,6 +53136,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="AM280" t="inlineStr">
+        <is>
+          <t>mention d'un restaurant/bar</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -51453,6 +53323,16 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AM281" t="inlineStr">
+        <is>
+          <t>collaboration avec un restaurant à Gand</t>
+        </is>
+      </c>
+      <c r="AP281" t="inlineStr">
+        <is>
+          <t>incite à commander sur leur site pour bénéficier de l'offre</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -51617,7 +53497,7 @@
       </c>
       <c r="AG282" t="inlineStr">
         <is>
-          <t>1,11,2</t>
+          <t>11</t>
         </is>
       </c>
       <c r="AH282" t="inlineStr">
@@ -51637,7 +53517,17 @@
       </c>
       <c r="AK282" t="inlineStr">
         <is>
-          <t>1,11,2</t>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="AN282" t="inlineStr">
+        <is>
+          <t>Recept</t>
+        </is>
+      </c>
+      <c r="AP282" t="inlineStr">
+        <is>
+          <t>incite à se rendre sur leur site web pour acceder à la recette</t>
         </is>
       </c>
     </row>
@@ -51784,7 +53674,7 @@
       </c>
       <c r="AC283" t="inlineStr">
         <is>
-          <t>1,11,3</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AD283" t="inlineStr">
@@ -51825,6 +53715,11 @@
       <c r="AK283" t="inlineStr">
         <is>
           <t>16</t>
+        </is>
+      </c>
+      <c r="AM283" t="inlineStr">
+        <is>
+          <t>associé à la rentrée scolaire, mise en avant de la qualité des ingrédients</t>
         </is>
       </c>
     </row>
@@ -51971,7 +53866,7 @@
       </c>
       <c r="AC284" t="inlineStr">
         <is>
-          <t>1,11,9</t>
+          <t>11</t>
         </is>
       </c>
       <c r="AE284" t="inlineStr">
@@ -52002,6 +53897,16 @@
       <c r="AK284" t="inlineStr">
         <is>
           <t>NA</t>
+        </is>
+      </c>
+      <c r="AM284" t="inlineStr">
+        <is>
+          <t>Propose plein de recettes pour cet évènement, mise en avant du régime végétarien</t>
+        </is>
+      </c>
+      <c r="AN284" t="inlineStr">
+        <is>
+          <t>Week zonder Vlees</t>
         </is>
       </c>
     </row>
@@ -52358,6 +54263,21 @@
           <t>16</t>
         </is>
       </c>
+      <c r="AM286" t="inlineStr">
+        <is>
+          <t>saison automnale</t>
+        </is>
+      </c>
+      <c r="AN286" t="inlineStr">
+        <is>
+          <t>Recept</t>
+        </is>
+      </c>
+      <c r="AP286" t="inlineStr">
+        <is>
+          <t>invite à consulter le site web pour la recette</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -52495,11 +54415,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="AG287" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="AH287" t="inlineStr">
         <is>
           <t>NA</t>
@@ -52664,7 +54579,7 @@
       </c>
       <c r="AC288" t="inlineStr">
         <is>
-          <t>0,11,7</t>
+          <t>11</t>
         </is>
       </c>
       <c r="AE288" t="inlineStr">
@@ -52695,6 +54610,16 @@
       <c r="AK288" t="inlineStr">
         <is>
           <t>NA</t>
+        </is>
+      </c>
+      <c r="AM288" t="inlineStr">
+        <is>
+          <t>Paroles de chanson</t>
+        </is>
+      </c>
+      <c r="AN288" t="inlineStr">
+        <is>
+          <t>Popmuziek</t>
         </is>
       </c>
     </row>
@@ -52884,6 +54809,16 @@
           <t>4c</t>
         </is>
       </c>
+      <c r="AM289" t="inlineStr">
+        <is>
+          <t>alternatives végétales mises en avant, associé au petit déjeuner</t>
+        </is>
+      </c>
+      <c r="AP289" t="inlineStr">
+        <is>
+          <t>nouveautés</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -53071,6 +55006,16 @@
           <t>1</t>
         </is>
       </c>
+      <c r="AM290" t="inlineStr">
+        <is>
+          <t>saison automnale</t>
+        </is>
+      </c>
+      <c r="AP290" t="inlineStr">
+        <is>
+          <t>Nouveautés</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -53215,7 +55160,7 @@
       </c>
       <c r="AC291" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1, 9</t>
         </is>
       </c>
       <c r="AD291" t="inlineStr">
@@ -53250,7 +55195,7 @@
       </c>
       <c r="AK291" t="inlineStr">
         <is>
-          <t>1,15,4b,NA</t>
+          <t>4b</t>
         </is>
       </c>
     </row>
@@ -53377,7 +55322,7 @@
       </c>
       <c r="Y292" t="inlineStr">
         <is>
-          <t>0,10,5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="Z292" t="inlineStr">
@@ -53433,6 +55378,21 @@
       <c r="AK292" t="inlineStr">
         <is>
           <t>NA</t>
+        </is>
+      </c>
+      <c r="AM292" t="inlineStr">
+        <is>
+          <t>localisé sur Bruxelles</t>
+        </is>
+      </c>
+      <c r="AO292" t="inlineStr">
+        <is>
+          <t>Livraison a prix réduit</t>
+        </is>
+      </c>
+      <c r="AP292" t="inlineStr">
+        <is>
+          <t>incite à commender sur leur site avec des livraisons à prix peu chers</t>
         </is>
       </c>
     </row>
@@ -53622,6 +55582,16 @@
           <t>4b</t>
         </is>
       </c>
+      <c r="AN293" t="inlineStr">
+        <is>
+          <t>Vergelijking met de concurrent?</t>
+        </is>
+      </c>
+      <c r="AP293" t="inlineStr">
+        <is>
+          <t>divers avantages mentionnés comparés à d'autres produits similaires</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -53809,6 +55779,16 @@
           <t>16</t>
         </is>
       </c>
+      <c r="AM294" t="inlineStr">
+        <is>
+          <t>mise en avant de leur large gamme</t>
+        </is>
+      </c>
+      <c r="AP294" t="inlineStr">
+        <is>
+          <t>nouveauté</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -53991,6 +55971,16 @@
           <t>9</t>
         </is>
       </c>
+      <c r="AM295" t="inlineStr">
+        <is>
+          <t>collaboration avec un restaurant sur Bruxelles</t>
+        </is>
+      </c>
+      <c r="AP295" t="inlineStr">
+        <is>
+          <t>commander sur leur site web pour recevoir l'offre</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -54335,6 +56325,11 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AO297" t="inlineStr">
+        <is>
+          <t>jeu</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -54522,6 +56517,16 @@
           <t>16</t>
         </is>
       </c>
+      <c r="AM298" t="inlineStr">
+        <is>
+          <t>met en avant leur large gamme</t>
+        </is>
+      </c>
+      <c r="AP298" t="inlineStr">
+        <is>
+          <t>nouveauté</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -54636,7 +56641,7 @@
       </c>
       <c r="Y299" t="inlineStr">
         <is>
-          <t>0,5,7</t>
+          <t>7</t>
         </is>
       </c>
       <c r="Z299" t="inlineStr">
@@ -54656,12 +56661,7 @@
       </c>
       <c r="AC299" t="inlineStr">
         <is>
-          <t>0,10,3</t>
-        </is>
-      </c>
-      <c r="AG299" t="inlineStr">
-        <is>
-          <t>NA</t>
+          <t>10</t>
         </is>
       </c>
       <c r="AH299" t="inlineStr">
@@ -54863,7 +56863,12 @@
       </c>
       <c r="AK300" t="inlineStr">
         <is>
-          <t>1,2,4f,NA</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AP300" t="inlineStr">
+        <is>
+          <t>s'abonner à leur compte pour découvrir les nouveaux produits en avant-première</t>
         </is>
       </c>
     </row>
@@ -55053,6 +57058,11 @@
           <t>9</t>
         </is>
       </c>
+      <c r="AP301" t="inlineStr">
+        <is>
+          <t>se rendre sur leur site pour découvrir les promos de la semaine</t>
+        </is>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -55185,11 +57195,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="AG302" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="AH302" t="inlineStr">
         <is>
           <t>A</t>
@@ -55208,6 +57213,16 @@
       <c r="AK302" t="inlineStr">
         <is>
           <t>A</t>
+        </is>
+      </c>
+      <c r="AO302" t="inlineStr">
+        <is>
+          <t>nouveauté</t>
+        </is>
+      </c>
+      <c r="AP302" t="inlineStr">
+        <is>
+          <t>Nouveauté</t>
         </is>
       </c>
     </row>
@@ -55354,7 +57369,7 @@
       </c>
       <c r="AC303" t="inlineStr">
         <is>
-          <t>0,11,3</t>
+          <t>11</t>
         </is>
       </c>
       <c r="AD303" t="inlineStr">
@@ -55390,6 +57405,21 @@
       <c r="AK303" t="inlineStr">
         <is>
           <t>16</t>
+        </is>
+      </c>
+      <c r="AM303" t="inlineStr">
+        <is>
+          <t>saison automnale</t>
+        </is>
+      </c>
+      <c r="AN303" t="inlineStr">
+        <is>
+          <t>Recept</t>
+        </is>
+      </c>
+      <c r="AP303" t="inlineStr">
+        <is>
+          <t>donne une idée de recette</t>
         </is>
       </c>
     </row>
@@ -55579,6 +57609,16 @@
           <t>16</t>
         </is>
       </c>
+      <c r="AN304" t="inlineStr">
+        <is>
+          <t>Recept en 'Opa-dag'</t>
+        </is>
+      </c>
+      <c r="AP304" t="inlineStr">
+        <is>
+          <t>donne une idée de recette</t>
+        </is>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -55761,6 +57801,21 @@
           <t>9</t>
         </is>
       </c>
+      <c r="AM305" t="inlineStr">
+        <is>
+          <t>Localise l'offre sur Gand</t>
+        </is>
+      </c>
+      <c r="AO305" t="inlineStr">
+        <is>
+          <t>livraison à moins de 1 €</t>
+        </is>
+      </c>
+      <c r="AP305" t="inlineStr">
+        <is>
+          <t>commander sur leur site web pour des livraisons à moindre coût</t>
+        </is>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -55948,6 +58003,11 @@
           <t>5</t>
         </is>
       </c>
+      <c r="AM306" t="inlineStr">
+        <is>
+          <t>met en avant leur artisanat local</t>
+        </is>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -56095,29 +58155,29 @@
           <t>0</t>
         </is>
       </c>
-      <c r="AG307" t="inlineStr">
+      <c r="AH307" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AH307" t="inlineStr">
+      <c r="AI307" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AI307" t="inlineStr">
+      <c r="AJ307" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AJ307" t="inlineStr">
+      <c r="AK307" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AK307" t="inlineStr">
-        <is>
-          <t>NA</t>
+      <c r="AP307" t="inlineStr">
+        <is>
+          <t>Offre d'emploi</t>
         </is>
       </c>
     </row>
@@ -56446,7 +58506,7 @@
       </c>
       <c r="AC309" t="inlineStr">
         <is>
-          <t>0,11,9</t>
+          <t>9</t>
         </is>
       </c>
       <c r="AD309" t="inlineStr">
@@ -56482,6 +58542,16 @@
       <c r="AK309" t="inlineStr">
         <is>
           <t>NA</t>
+        </is>
+      </c>
+      <c r="AN309" t="inlineStr">
+        <is>
+          <t>Recept</t>
+        </is>
+      </c>
+      <c r="AP309" t="inlineStr">
+        <is>
+          <t>Invite à aller sur des sites Web pour acceder à des recettes</t>
         </is>
       </c>
     </row>
@@ -56628,7 +58698,7 @@
       </c>
       <c r="AC310" t="inlineStr">
         <is>
-          <t>11,9</t>
+          <t>11, 9</t>
         </is>
       </c>
       <c r="AD310" t="inlineStr">
@@ -56664,6 +58734,21 @@
       <c r="AK310" t="inlineStr">
         <is>
           <t>10,11,16,2,NA</t>
+        </is>
+      </c>
+      <c r="AM310" t="inlineStr">
+        <is>
+          <t>collaboration avec des blogs culinaires</t>
+        </is>
+      </c>
+      <c r="AN310" t="inlineStr">
+        <is>
+          <t>Recept</t>
+        </is>
+      </c>
+      <c r="AP310" t="inlineStr">
+        <is>
+          <t>invite à cliquer sur des liens pour avoir des recettes</t>
         </is>
       </c>
     </row>
@@ -56810,7 +58895,7 @@
       </c>
       <c r="AC311" t="inlineStr">
         <is>
-          <t>11,9</t>
+          <t>11, 9</t>
         </is>
       </c>
       <c r="AD311" t="inlineStr">
@@ -56845,7 +58930,22 @@
       </c>
       <c r="AK311" t="inlineStr">
         <is>
-          <t>10,11,13,16,18,NA</t>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="AM311" t="inlineStr">
+        <is>
+          <t>collaboration avec des blogs culinaires</t>
+        </is>
+      </c>
+      <c r="AN311" t="inlineStr">
+        <is>
+          <t>Recept</t>
+        </is>
+      </c>
+      <c r="AP311" t="inlineStr">
+        <is>
+          <t>invite à cliquer sur des liens pour acceder à des recettes</t>
         </is>
       </c>
     </row>
@@ -57035,6 +59135,21 @@
           <t>1</t>
         </is>
       </c>
+      <c r="AM312" t="inlineStr">
+        <is>
+          <t>sensibiliser à la biodiversité</t>
+        </is>
+      </c>
+      <c r="AN312" t="inlineStr">
+        <is>
+          <t>Maai Mei niet</t>
+        </is>
+      </c>
+      <c r="AP312" t="inlineStr">
+        <is>
+          <t>Invite à participer à une campagne</t>
+        </is>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -57217,6 +59332,21 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AM313" t="inlineStr">
+        <is>
+          <t>localisé sur Bruxelles</t>
+        </is>
+      </c>
+      <c r="AO313" t="inlineStr">
+        <is>
+          <t>livraison à moins de 1€</t>
+        </is>
+      </c>
+      <c r="AP313" t="inlineStr">
+        <is>
+          <t>invite à commander sur leur site web pour bénéficier de frais de livraison pas chers</t>
+        </is>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -57381,7 +59511,7 @@
       </c>
       <c r="AG314" t="inlineStr">
         <is>
-          <t>4.4,4.5</t>
+          <t>4.4, 4.5</t>
         </is>
       </c>
       <c r="AH314" t="inlineStr">
@@ -57401,7 +59531,7 @@
       </c>
       <c r="AK314" t="inlineStr">
         <is>
-          <t>4d,4e</t>
+          <t>4d, 4e</t>
         </is>
       </c>
     </row>
@@ -57568,7 +59698,7 @@
       </c>
       <c r="AG315" t="inlineStr">
         <is>
-          <t>4.4,4.5</t>
+          <t>4.4, 4.5</t>
         </is>
       </c>
       <c r="AH315" t="inlineStr">
@@ -57588,7 +59718,7 @@
       </c>
       <c r="AK315" t="inlineStr">
         <is>
-          <t>4d,4e</t>
+          <t>4d, 4e</t>
         </is>
       </c>
     </row>
@@ -57778,6 +59908,21 @@
           <t>8</t>
         </is>
       </c>
+      <c r="AM316" t="inlineStr">
+        <is>
+          <t>collaboration avec une blogueuse culinaire</t>
+        </is>
+      </c>
+      <c r="AN316" t="inlineStr">
+        <is>
+          <t>Recept</t>
+        </is>
+      </c>
+      <c r="AP316" t="inlineStr">
+        <is>
+          <t>invite à se rendre sur leur site web pour découvrir la recette</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -57965,6 +60110,11 @@
           <t>15</t>
         </is>
       </c>
+      <c r="AM317" t="inlineStr">
+        <is>
+          <t>mise en avant du local et de la qualité</t>
+        </is>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -58129,7 +60279,7 @@
       </c>
       <c r="AG318" t="inlineStr">
         <is>
-          <t>4.4,4.5</t>
+          <t>4.4, 4.5</t>
         </is>
       </c>
       <c r="AH318" t="inlineStr">
@@ -58149,7 +60299,7 @@
       </c>
       <c r="AK318" t="inlineStr">
         <is>
-          <t>4d,4e</t>
+          <t>4d, 4e</t>
         </is>
       </c>
     </row>
@@ -58521,6 +60671,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="AP320" t="inlineStr">
+        <is>
+          <t>Nouveauté</t>
+        </is>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -58685,7 +60840,7 @@
       </c>
       <c r="AG321" t="inlineStr">
         <is>
-          <t>12,15,18,3,7,8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="AH321" t="inlineStr">
@@ -58705,7 +60860,22 @@
       </c>
       <c r="AK321" t="inlineStr">
         <is>
-          <t>12,15,18,3,7,8</t>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AM321" t="inlineStr">
+        <is>
+          <t>Adaptation d'un produit sans additifs</t>
+        </is>
+      </c>
+      <c r="AN321" t="inlineStr">
+        <is>
+          <t>Recept</t>
+        </is>
+      </c>
+      <c r="AP321" t="inlineStr">
+        <is>
+          <t>donne une idée de recette</t>
         </is>
       </c>
     </row>
@@ -58890,6 +61060,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="AP322" t="inlineStr">
+        <is>
+          <t>Nouveauté</t>
+        </is>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -59034,7 +61209,7 @@
       </c>
       <c r="AC323" t="inlineStr">
         <is>
-          <t>1,11,9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AD323" t="inlineStr">
@@ -59075,6 +61250,16 @@
       <c r="AK323" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+      <c r="AN323" t="inlineStr">
+        <is>
+          <t>Gepersonaliseerde M&amp;M's</t>
+        </is>
+      </c>
+      <c r="AP323" t="inlineStr">
+        <is>
+          <t>possibilité de personnaliser son produit</t>
         </is>
       </c>
     </row>
@@ -59241,7 +61426,7 @@
       </c>
       <c r="AG324" t="inlineStr">
         <is>
-          <t>4.4,4.5</t>
+          <t>4.4, 4.5</t>
         </is>
       </c>
       <c r="AH324" t="inlineStr">
@@ -59261,7 +61446,12 @@
       </c>
       <c r="AK324" t="inlineStr">
         <is>
-          <t>4d,4e</t>
+          <t>4d, 4e</t>
+        </is>
+      </c>
+      <c r="AM324" t="inlineStr">
+        <is>
+          <t>associé aux études/travail</t>
         </is>
       </c>
     </row>
@@ -59438,7 +61628,12 @@
       </c>
       <c r="AK325" t="inlineStr">
         <is>
-          <t>11,9,A</t>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="AM325" t="inlineStr">
+        <is>
+          <t>associé au samedi, moments familiaux</t>
         </is>
       </c>
     </row>
@@ -59618,6 +61813,11 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AP326" t="inlineStr">
+        <is>
+          <t>offre d'emploi</t>
+        </is>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -59797,7 +61997,12 @@
       </c>
       <c r="AK327" t="inlineStr">
         <is>
-          <t>15,16,NA</t>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="AM327" t="inlineStr">
+        <is>
+          <t>saison estivale, qualité des produits</t>
         </is>
       </c>
     </row>
@@ -59964,7 +62169,7 @@
       </c>
       <c r="AG328" t="inlineStr">
         <is>
-          <t>14,8,9,99</t>
+          <t>9</t>
         </is>
       </c>
       <c r="AH328" t="inlineStr">
@@ -59984,7 +62189,7 @@
       </c>
       <c r="AK328" t="inlineStr">
         <is>
-          <t>14,8,9,NA</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -60174,6 +62379,11 @@
           <t>4b</t>
         </is>
       </c>
+      <c r="AN329" t="inlineStr">
+        <is>
+          <t>Doorgeven van de voorkeur als consument</t>
+        </is>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -60338,7 +62548,7 @@
       </c>
       <c r="AG330" t="inlineStr">
         <is>
-          <t>4.4,4.5</t>
+          <t>4.4, 4.5</t>
         </is>
       </c>
       <c r="AH330" t="inlineStr">
@@ -60358,7 +62568,7 @@
       </c>
       <c r="AK330" t="inlineStr">
         <is>
-          <t>4d,4e</t>
+          <t>4d, 4e</t>
         </is>
       </c>
     </row>
@@ -60485,7 +62695,7 @@
       </c>
       <c r="Y331" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2, 5</t>
         </is>
       </c>
       <c r="Z331" t="inlineStr">
@@ -60506,11 +62716,6 @@
       <c r="AC331" t="inlineStr">
         <is>
           <t>10</t>
-        </is>
-      </c>
-      <c r="AG331" t="inlineStr">
-        <is>
-          <t>NA</t>
         </is>
       </c>
       <c r="AH331" t="inlineStr">
@@ -60710,6 +62915,16 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AN332" t="inlineStr">
+        <is>
+          <t>DIY</t>
+        </is>
+      </c>
+      <c r="AP332" t="inlineStr">
+        <is>
+          <t>offre une idée de bricolage</t>
+        </is>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -60854,7 +63069,7 @@
       </c>
       <c r="AC333" t="inlineStr">
         <is>
-          <t>1,3,9</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AD333" t="inlineStr">
@@ -60895,6 +63110,11 @@
       <c r="AK333" t="inlineStr">
         <is>
           <t>16</t>
+        </is>
+      </c>
+      <c r="AP333" t="inlineStr">
+        <is>
+          <t>invite à commander sur l'e-shop pour bénéficier de la promo</t>
         </is>
       </c>
     </row>
@@ -61084,6 +63304,26 @@
           <t>9</t>
         </is>
       </c>
+      <c r="AM334" t="inlineStr">
+        <is>
+          <t>collaboration entre Burger King et Deliveroo</t>
+        </is>
+      </c>
+      <c r="AO334" t="inlineStr">
+        <is>
+          <t>frais de livraisons</t>
+        </is>
+      </c>
+      <c r="AP334" t="inlineStr">
+        <is>
+          <t>incite à commander sur leur site pour bénéficier d'une livraison gratuite</t>
+        </is>
+      </c>
+      <c r="AQ334" t="inlineStr">
+        <is>
+          <t>Gratis levering</t>
+        </is>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -61266,6 +63506,16 @@
           <t>2</t>
         </is>
       </c>
+      <c r="AO335" t="inlineStr">
+        <is>
+          <t>Recherche d'emploi</t>
+        </is>
+      </c>
+      <c r="AP335" t="inlineStr">
+        <is>
+          <t>offre d'emploi</t>
+        </is>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -61453,6 +63703,16 @@
           <t>7</t>
         </is>
       </c>
+      <c r="AM336" t="inlineStr">
+        <is>
+          <t>met en avant l'impact écologique faible du produit</t>
+        </is>
+      </c>
+      <c r="AN336" t="inlineStr">
+        <is>
+          <t>In de verf zetten van de ECO-score</t>
+        </is>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -61597,7 +63857,7 @@
       </c>
       <c r="AC337" t="inlineStr">
         <is>
-          <t>1,11</t>
+          <t>1, 11</t>
         </is>
       </c>
       <c r="AD337" t="inlineStr">
@@ -61632,7 +63892,22 @@
       </c>
       <c r="AK337" t="inlineStr">
         <is>
-          <t>1,10,15,16,3,6,7,NA</t>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AM337" t="inlineStr">
+        <is>
+          <t>Assimilé au petit déjeuner</t>
+        </is>
+      </c>
+      <c r="AN337" t="inlineStr">
+        <is>
+          <t>Recept</t>
+        </is>
+      </c>
+      <c r="AP337" t="inlineStr">
+        <is>
+          <t>Partage un recette</t>
         </is>
       </c>
     </row>
@@ -61817,6 +64092,16 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AM338" t="inlineStr">
+        <is>
+          <t>collaboration entre Delhaize et Nestlé</t>
+        </is>
+      </c>
+      <c r="AP338" t="inlineStr">
+        <is>
+          <t>offre applicable que en ligne</t>
+        </is>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -61999,6 +64284,11 @@
           <t>16</t>
         </is>
       </c>
+      <c r="AM339" t="inlineStr">
+        <is>
+          <t>associé aux vacances</t>
+        </is>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -62131,11 +64421,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="AG340" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="AH340" t="inlineStr">
         <is>
           <t>A</t>
@@ -62154,6 +64439,11 @@
       <c r="AK340" t="inlineStr">
         <is>
           <t>A</t>
+        </is>
+      </c>
+      <c r="AM340" t="inlineStr">
+        <is>
+          <t>periode estivale</t>
         </is>
       </c>
     </row>
@@ -62338,6 +64628,16 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AN341" t="inlineStr">
+        <is>
+          <t>Recept</t>
+        </is>
+      </c>
+      <c r="AP341" t="inlineStr">
+        <is>
+          <t>offre une idée de recette</t>
+        </is>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -62525,6 +64825,11 @@
           <t>4b</t>
         </is>
       </c>
+      <c r="AM342" t="inlineStr">
+        <is>
+          <t>met en avant le fait que le produit est sans sucres ajoutés</t>
+        </is>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -62712,6 +65017,11 @@
           <t>14</t>
         </is>
       </c>
+      <c r="AM343" t="inlineStr">
+        <is>
+          <t>met en avant le Nutriscore avantageux et le fait qu'il soit moins gras mais tout aussi savoureux</t>
+        </is>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -62899,6 +65209,11 @@
           <t>14</t>
         </is>
       </c>
+      <c r="AM344" t="inlineStr">
+        <is>
+          <t>met en avant le fait qu'il soit "meuilleur pour la santé" et tout aussi bon + nutriscore</t>
+        </is>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -63063,7 +65378,7 @@
       </c>
       <c r="AG345" t="inlineStr">
         <is>
-          <t>16,2,99</t>
+          <t>16</t>
         </is>
       </c>
       <c r="AH345" t="inlineStr">
@@ -63083,7 +65398,12 @@
       </c>
       <c r="AK345" t="inlineStr">
         <is>
-          <t>16,2,NA</t>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="AM345" t="inlineStr">
+        <is>
+          <t>met en avant le fait que ce sont des collations "saines et nutritives", collaboration entre Delhaize et Nestlé</t>
         </is>
       </c>
     </row>
@@ -63273,6 +65593,11 @@
           <t>14</t>
         </is>
       </c>
+      <c r="AM346" t="inlineStr">
+        <is>
+          <t>collaboration avec une blogueuse, associé aux sorties dehors</t>
+        </is>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -63624,7 +65949,7 @@
       </c>
       <c r="AG348" t="inlineStr">
         <is>
-          <t>11,12,9</t>
+          <t>9</t>
         </is>
       </c>
       <c r="AH348" t="inlineStr">
@@ -63644,7 +65969,12 @@
       </c>
       <c r="AK348" t="inlineStr">
         <is>
-          <t>11,12,9</t>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="AM348" t="inlineStr">
+        <is>
+          <t>associé au samedi</t>
         </is>
       </c>
     </row>
@@ -63968,7 +66298,7 @@
       </c>
       <c r="AC350" t="inlineStr">
         <is>
-          <t>3,9</t>
+          <t>3, 9</t>
         </is>
       </c>
       <c r="AD350" t="inlineStr">
@@ -64198,6 +66528,21 @@
           <t>1</t>
         </is>
       </c>
+      <c r="AN351" t="inlineStr">
+        <is>
+          <t>Gepersonaliseerd product</t>
+        </is>
+      </c>
+      <c r="AO351" t="inlineStr">
+        <is>
+          <t>personnalisation</t>
+        </is>
+      </c>
+      <c r="AP351" t="inlineStr">
+        <is>
+          <t>possibilité de personnaliser son produit</t>
+        </is>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -64385,6 +66730,11 @@
           <t>5</t>
         </is>
       </c>
+      <c r="AM352" t="inlineStr">
+        <is>
+          <t>motifs caractéristiques de la marque</t>
+        </is>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -64572,6 +66922,21 @@
           <t>8</t>
         </is>
       </c>
+      <c r="AM353" t="inlineStr">
+        <is>
+          <t>collaboration avec une blogueuse culinaire</t>
+        </is>
+      </c>
+      <c r="AN353" t="inlineStr">
+        <is>
+          <t>Recept</t>
+        </is>
+      </c>
+      <c r="AP353" t="inlineStr">
+        <is>
+          <t>idée de recette proposée</t>
+        </is>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -64759,6 +67124,11 @@
           <t>4a</t>
         </is>
       </c>
+      <c r="AM354" t="inlineStr">
+        <is>
+          <t>associé aux enfants</t>
+        </is>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -64938,7 +67308,17 @@
       </c>
       <c r="AK355" t="inlineStr">
         <is>
-          <t>1,10,15,NA</t>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="AM355" t="inlineStr">
+        <is>
+          <t>saison automnale</t>
+        </is>
+      </c>
+      <c r="AP355" t="inlineStr">
+        <is>
+          <t>idée d'activité et recette données</t>
         </is>
       </c>
     </row>
@@ -65118,6 +67498,11 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AM356" t="inlineStr">
+        <is>
+          <t>allusion au téléphone</t>
+        </is>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -65282,19 +67667,19 @@
       </c>
       <c r="AG357" t="inlineStr">
         <is>
+          <t>1, 18</t>
+        </is>
+      </c>
+      <c r="AH357" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="AI357" t="inlineStr">
+        <is>
           <t>1,11,18,3,7</t>
         </is>
       </c>
-      <c r="AH357" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="AI357" t="inlineStr">
-        <is>
-          <t>1,11,18,3,7</t>
-        </is>
-      </c>
       <c r="AJ357" t="inlineStr">
         <is>
           <t>1</t>
@@ -65302,7 +67687,22 @@
       </c>
       <c r="AK357" t="inlineStr">
         <is>
-          <t>1,11,18,3,7</t>
+          <t>1, 18</t>
+        </is>
+      </c>
+      <c r="AM357" t="inlineStr">
+        <is>
+          <t>saison estivale</t>
+        </is>
+      </c>
+      <c r="AN357" t="inlineStr">
+        <is>
+          <t>Recept</t>
+        </is>
+      </c>
+      <c r="AP357" t="inlineStr">
+        <is>
+          <t>offre une idée de recette</t>
         </is>
       </c>
     </row>
@@ -65482,6 +67882,16 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AN358" t="inlineStr">
+        <is>
+          <t>Recept</t>
+        </is>
+      </c>
+      <c r="AP358" t="inlineStr">
+        <is>
+          <t>invite à consulter leur site pour avoir accès aux astuces</t>
+        </is>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -65664,6 +68074,16 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AM359" t="inlineStr">
+        <is>
+          <t>collaboration avec un restaurant sur Liège</t>
+        </is>
+      </c>
+      <c r="AP359" t="inlineStr">
+        <is>
+          <t>offre valable en commandant via leur cite = incitation</t>
+        </is>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -65808,7 +68228,7 @@
       </c>
       <c r="AC360" t="inlineStr">
         <is>
-          <t>1,11,9</t>
+          <t>11</t>
         </is>
       </c>
       <c r="AD360" t="inlineStr">
@@ -65844,6 +68264,16 @@
       <c r="AK360" t="inlineStr">
         <is>
           <t>1,4b,NA</t>
+        </is>
+      </c>
+      <c r="AM360" t="inlineStr">
+        <is>
+          <t>associé au petit-déjeuner</t>
+        </is>
+      </c>
+      <c r="AN360" t="inlineStr">
+        <is>
+          <t>World Smile Day</t>
         </is>
       </c>
     </row>
@@ -65990,7 +68420,7 @@
       </c>
       <c r="AC361" t="inlineStr">
         <is>
-          <t>1,11,7</t>
+          <t>1, 7</t>
         </is>
       </c>
       <c r="AD361" t="inlineStr">
@@ -66031,6 +68461,11 @@
       <c r="AK361" t="inlineStr">
         <is>
           <t>5</t>
+        </is>
+      </c>
+      <c r="AM361" t="inlineStr">
+        <is>
+          <t>motifs caractéristiques de l'entreprise</t>
         </is>
       </c>
     </row>
@@ -66165,11 +68600,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="AG362" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="AH362" t="inlineStr">
         <is>
           <t>A</t>
@@ -66188,6 +68618,11 @@
       <c r="AK362" t="inlineStr">
         <is>
           <t>A</t>
+        </is>
+      </c>
+      <c r="AM362" t="inlineStr">
+        <is>
+          <t>associé à un moment convivial</t>
         </is>
       </c>
     </row>
@@ -66544,6 +68979,11 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AP364" t="inlineStr">
+        <is>
+          <t>nouveau magasin ouvert</t>
+        </is>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -66731,6 +69171,11 @@
           <t>5</t>
         </is>
       </c>
+      <c r="AN365" t="inlineStr">
+        <is>
+          <t>Wereldcomplimentendag</t>
+        </is>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -66918,6 +69363,16 @@
           <t>2</t>
         </is>
       </c>
+      <c r="AM366" t="inlineStr">
+        <is>
+          <t>Collaboration avec TakeAway (et Nutella)</t>
+        </is>
+      </c>
+      <c r="AO366" t="inlineStr">
+        <is>
+          <t>site web</t>
+        </is>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -67269,7 +69724,7 @@
       </c>
       <c r="AG368" t="inlineStr">
         <is>
-          <t>4.4,4.5</t>
+          <t>4.4, 4.5</t>
         </is>
       </c>
       <c r="AH368" t="inlineStr">
@@ -67289,7 +69744,7 @@
       </c>
       <c r="AK368" t="inlineStr">
         <is>
-          <t>4d,4e</t>
+          <t>4d, 4e</t>
         </is>
       </c>
     </row>
@@ -67479,6 +69934,21 @@
           <t>8</t>
         </is>
       </c>
+      <c r="AM369" t="inlineStr">
+        <is>
+          <t>saison printannière, collaboration avec une blogueuse</t>
+        </is>
+      </c>
+      <c r="AN369" t="inlineStr">
+        <is>
+          <t>Recept</t>
+        </is>
+      </c>
+      <c r="AP369" t="inlineStr">
+        <is>
+          <t>idée de recette offerte</t>
+        </is>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -67623,7 +70093,7 @@
       </c>
       <c r="AC370" t="inlineStr">
         <is>
-          <t>1,11</t>
+          <t>1, 11</t>
         </is>
       </c>
       <c r="AD370" t="inlineStr">
@@ -67664,6 +70134,26 @@
       <c r="AK370" t="inlineStr">
         <is>
           <t>1,18,NA</t>
+        </is>
+      </c>
+      <c r="AM370" t="inlineStr">
+        <is>
+          <t>collaboration avec Colruyt, mise en avant de l'écologie</t>
+        </is>
+      </c>
+      <c r="AN370" t="inlineStr">
+        <is>
+          <t>Less packaging</t>
+        </is>
+      </c>
+      <c r="AO370" t="inlineStr">
+        <is>
+          <t>diminution d l'emballage</t>
+        </is>
+      </c>
+      <c r="AP370" t="inlineStr">
+        <is>
+          <t>nouvel emballage plus éco-responsable</t>
         </is>
       </c>
     </row>
@@ -67830,7 +70320,7 @@
       </c>
       <c r="AG371" t="inlineStr">
         <is>
-          <t>4.4,4.5</t>
+          <t>4.4, 4.5</t>
         </is>
       </c>
       <c r="AH371" t="inlineStr">
@@ -67850,7 +70340,12 @@
       </c>
       <c r="AK371" t="inlineStr">
         <is>
-          <t>4d,4e</t>
+          <t>4d, 4e</t>
+        </is>
+      </c>
+      <c r="AM371" t="inlineStr">
+        <is>
+          <t>associé au jardinage</t>
         </is>
       </c>
     </row>
@@ -67997,7 +70492,7 @@
       </c>
       <c r="AC372" t="inlineStr">
         <is>
-          <t>11,7</t>
+          <t>11, 7</t>
         </is>
       </c>
       <c r="AD372" t="inlineStr">
@@ -68038,6 +70533,16 @@
       <c r="AK372" t="inlineStr">
         <is>
           <t>8</t>
+        </is>
+      </c>
+      <c r="AM372" t="inlineStr">
+        <is>
+          <t>collaboration avec une émission, placement d'un produit de la marque Carrefour</t>
+        </is>
+      </c>
+      <c r="AN372" t="inlineStr">
+        <is>
+          <t>TV</t>
         </is>
       </c>
     </row>
@@ -68227,6 +70732,11 @@
           <t>3</t>
         </is>
       </c>
+      <c r="AO373" t="inlineStr">
+        <is>
+          <t>site web / réseau sociaux</t>
+        </is>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -68406,7 +70916,17 @@
       </c>
       <c r="AK374" t="inlineStr">
         <is>
-          <t>14,15,18,8,NA</t>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AN374" t="inlineStr">
+        <is>
+          <t>Recept</t>
+        </is>
+      </c>
+      <c r="AP374" t="inlineStr">
+        <is>
+          <t>invite à cliquer sur un lien pour acceder à la recette</t>
         </is>
       </c>
     </row>
@@ -68541,11 +71061,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="AG375" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="AH375" t="inlineStr">
         <is>
           <t>A</t>
@@ -68564,6 +71079,11 @@
       <c r="AK375" t="inlineStr">
         <is>
           <t>A</t>
+        </is>
+      </c>
+      <c r="AN375" t="inlineStr">
+        <is>
+          <t>666</t>
         </is>
       </c>
     </row>
@@ -68713,29 +71233,29 @@
           <t>0,11,9</t>
         </is>
       </c>
-      <c r="AG376" t="inlineStr">
+      <c r="AH376" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AH376" t="inlineStr">
+      <c r="AI376" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AI376" t="inlineStr">
+      <c r="AJ376" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AJ376" t="inlineStr">
+      <c r="AK376" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AK376" t="inlineStr">
-        <is>
-          <t>NA</t>
+      <c r="AN376" t="inlineStr">
+        <is>
+          <t>International day of friendship</t>
         </is>
       </c>
     </row>
@@ -69097,6 +71617,16 @@
           <t>1</t>
         </is>
       </c>
+      <c r="AN378" t="inlineStr">
+        <is>
+          <t>Gepersonaliseerde verpakking</t>
+        </is>
+      </c>
+      <c r="AP378" t="inlineStr">
+        <is>
+          <t>produit personnalisable</t>
+        </is>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -69229,11 +71759,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="AG379" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="AH379" t="inlineStr">
         <is>
           <t>A</t>
@@ -69441,6 +71966,11 @@
           <t>7</t>
         </is>
       </c>
+      <c r="AM380" t="inlineStr">
+        <is>
+          <t>associé au petit-déjeuner, met en avant ses atouts nutritionnels</t>
+        </is>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -69628,6 +72158,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="AM381" t="inlineStr">
+        <is>
+          <t>motif caractéristiques de la marque</t>
+        </is>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -69775,29 +72310,29 @@
           <t>0,11,9</t>
         </is>
       </c>
-      <c r="AG382" t="inlineStr">
+      <c r="AH382" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AH382" t="inlineStr">
+      <c r="AI382" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AI382" t="inlineStr">
+      <c r="AJ382" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AJ382" t="inlineStr">
+      <c r="AK382" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AK382" t="inlineStr">
-        <is>
-          <t>NA</t>
+      <c r="AN382" t="inlineStr">
+        <is>
+          <t>Familiedag</t>
         </is>
       </c>
     </row>
@@ -69977,6 +72512,11 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AM383" t="inlineStr">
+        <is>
+          <t>associé au jeux de société, saison automnale</t>
+        </is>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -70159,6 +72699,16 @@
           <t>9</t>
         </is>
       </c>
+      <c r="AM384" t="inlineStr">
+        <is>
+          <t>Localisé sur Anvers</t>
+        </is>
+      </c>
+      <c r="AP384" t="inlineStr">
+        <is>
+          <t>incite à commander sur leur site pour bénéficier de livraisons peu chères</t>
+        </is>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
@@ -70291,11 +72841,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="AG385" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="AH385" t="inlineStr">
         <is>
           <t>A</t>
@@ -70314,6 +72859,11 @@
       <c r="AK385" t="inlineStr">
         <is>
           <t>A</t>
+        </is>
+      </c>
+      <c r="AN385" t="inlineStr">
+        <is>
+          <t>Gelimiteerde oplage</t>
         </is>
       </c>
     </row>
@@ -70440,7 +72990,7 @@
       </c>
       <c r="Y386" t="inlineStr">
         <is>
-          <t>10,4,8</t>
+          <t>8</t>
         </is>
       </c>
       <c r="Z386" t="inlineStr">
@@ -70501,6 +73051,11 @@
       <c r="AK386" t="inlineStr">
         <is>
           <t>2</t>
+        </is>
+      </c>
+      <c r="AP386" t="inlineStr">
+        <is>
+          <t>diverses offres</t>
         </is>
       </c>
     </row>
@@ -70852,6 +73407,16 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AM388" t="inlineStr">
+        <is>
+          <t>localisé sur Bruxelles</t>
+        </is>
+      </c>
+      <c r="AP388" t="inlineStr">
+        <is>
+          <t>invite a commander sur leur site pour bénéficier de livraisons peu chères</t>
+        </is>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
@@ -71039,6 +73604,11 @@
           <t>16</t>
         </is>
       </c>
+      <c r="AM389" t="inlineStr">
+        <is>
+          <t>met en avant l'amellioration de leur recette</t>
+        </is>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
@@ -71221,6 +73791,16 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AM390" t="inlineStr">
+        <is>
+          <t>collaboration avec un restaurant sur Bruxelles</t>
+        </is>
+      </c>
+      <c r="AP390" t="inlineStr">
+        <is>
+          <t>offre valable en commandant sur leur site</t>
+        </is>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
@@ -71590,6 +74170,16 @@
           <t>9</t>
         </is>
       </c>
+      <c r="AM392" t="inlineStr">
+        <is>
+          <t>collaboration avec un restaurant sur Anvers</t>
+        </is>
+      </c>
+      <c r="AP392" t="inlineStr">
+        <is>
+          <t>exclusivement en commandant sur leur site</t>
+        </is>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
@@ -71734,7 +74324,7 @@
       </c>
       <c r="AC393" t="inlineStr">
         <is>
-          <t>1,11,3</t>
+          <t>11</t>
         </is>
       </c>
       <c r="AE393" t="inlineStr">
@@ -71770,6 +74360,16 @@
       <c r="AK393" t="inlineStr">
         <is>
           <t>5</t>
+        </is>
+      </c>
+      <c r="AM393" t="inlineStr">
+        <is>
+          <t>motifs caractériqtiques de la marque</t>
+        </is>
+      </c>
+      <c r="AN393" t="inlineStr">
+        <is>
+          <t>Internationale dag van de Ijsbeer</t>
         </is>
       </c>
     </row>
@@ -71916,7 +74516,7 @@
       </c>
       <c r="AC394" t="inlineStr">
         <is>
-          <t>1,10,11,9</t>
+          <t>9</t>
         </is>
       </c>
       <c r="AE394" t="inlineStr">
@@ -71947,6 +74547,11 @@
       <c r="AK394" t="inlineStr">
         <is>
           <t>NA</t>
+        </is>
+      </c>
+      <c r="AM394" t="inlineStr">
+        <is>
+          <t>motifs caractériqtiques de l'entreprise</t>
         </is>
       </c>
     </row>
@@ -72093,7 +74698,7 @@
       </c>
       <c r="AC395" t="inlineStr">
         <is>
-          <t>1,11,9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AE395" t="inlineStr">
@@ -72124,6 +74729,11 @@
       <c r="AK395" t="inlineStr">
         <is>
           <t>NA</t>
+        </is>
+      </c>
+      <c r="AN395" t="inlineStr">
+        <is>
+          <t>Complimentendag</t>
         </is>
       </c>
     </row>
@@ -72270,7 +74880,7 @@
       </c>
       <c r="AC396" t="inlineStr">
         <is>
-          <t>1,11,9</t>
+          <t>11, 9</t>
         </is>
       </c>
       <c r="AD396" t="inlineStr">
@@ -72311,6 +74921,16 @@
       <c r="AK396" t="inlineStr">
         <is>
           <t>5</t>
+        </is>
+      </c>
+      <c r="AM396" t="inlineStr">
+        <is>
+          <t>mise en avant d'une alternative végétale</t>
+        </is>
+      </c>
+      <c r="AN396" t="inlineStr">
+        <is>
+          <t>Complimentendag</t>
         </is>
       </c>
     </row>
@@ -72445,11 +75065,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="AG397" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="AH397" t="inlineStr">
         <is>
           <t>A</t>
@@ -72468,6 +75083,11 @@
       <c r="AK397" t="inlineStr">
         <is>
           <t>A</t>
+        </is>
+      </c>
+      <c r="AP397" t="inlineStr">
+        <is>
+          <t>nouveauté</t>
         </is>
       </c>
     </row>
@@ -72602,11 +75222,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="AG398" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="AH398" t="inlineStr">
         <is>
           <t>A</t>
@@ -72625,6 +75240,11 @@
       <c r="AK398" t="inlineStr">
         <is>
           <t>A</t>
+        </is>
+      </c>
+      <c r="AM398" t="inlineStr">
+        <is>
+          <t>associé aux festivités, met en avant ses "atouts nutritionnels"</t>
         </is>
       </c>
     </row>
@@ -72809,6 +75429,11 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AM399" t="inlineStr">
+        <is>
+          <t>associé au mercredi et aux moments familiaux</t>
+        </is>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
@@ -72996,6 +75621,16 @@
           <t>4e</t>
         </is>
       </c>
+      <c r="AM400" t="inlineStr">
+        <is>
+          <t>collaboration avec Coca Cola</t>
+        </is>
+      </c>
+      <c r="AN400" t="inlineStr">
+        <is>
+          <t>Samenwerking met ander merk?</t>
+        </is>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
@@ -73171,6 +75806,11 @@
       <c r="AK401" t="inlineStr">
         <is>
           <t>NA</t>
+        </is>
+      </c>
+      <c r="AM401" t="inlineStr">
+        <is>
+          <t>motifs caractéristiques de la marque</t>
         </is>
       </c>
     </row>
